--- a/src/main/resources/excel/FHIR_Testdatengenerator_Vorlage.xlsx
+++ b/src/main/resources/excel/FHIR_Testdatengenerator_Vorlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\D\Eigene Projekte\smith\TestDataGenerator\input - Vorlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2D7EFC-FBCA-42BB-8D5C-32978C2AB3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF101159-0E7C-4524-ABBD-CAF01F1ADC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" tabRatio="828" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" tabRatio="828" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="2" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="1045">
   <si>
     <t>Patient-ID</t>
   </si>
@@ -2927,42 +2927,12 @@
     <t>Zeitstempel = Datum und Urzeit der Messung</t>
   </si>
   <si>
-    <t>#####################################</t>
-  </si>
-  <si>
-    <t># Options to control the conversion #</t>
-  </si>
-  <si>
     <t>###</t>
   </si>
   <si>
     <t># Start index counter for the number that will be</t>
   </si>
   <si>
-    <t># START_ID_CONSENT = 1</t>
-  </si>
-  <si>
-    <t># START_ID_DIAGNOSIS = 1</t>
-  </si>
-  <si>
-    <t># START_ID_ENCOUNTER_LEVEL_2 = 1</t>
-  </si>
-  <si>
-    <t># START_ID_MEDICATION_ADMINISTRATION = 1</t>
-  </si>
-  <si>
-    <t># START_ID_MEDICATION_STATEMENT = 1</t>
-  </si>
-  <si>
-    <t># START_ID_OBSERVATION_LABORATORY = 1</t>
-  </si>
-  <si>
-    <t># START_ID_OBSERVATION_VITAL_SIGNS = 1</t>
-  </si>
-  <si>
-    <t># START_ID_PROCEDURE = 1</t>
-  </si>
-  <si>
     <t># If true, then Sub Encounters will have a diagnosis</t>
   </si>
   <si>
@@ -3026,9 +2996,6 @@
     <t># If the value is missing or commented out in this</t>
   </si>
   <si>
-    <t># map then the  default is 1.</t>
-  </si>
-  <si>
     <t xml:space="preserve"># Enable to set a the optional reference from </t>
   </si>
   <si>
@@ -3159,6 +3126,111 @@
   </si>
   <si>
     <t>numerischer Wert der Messung (auch negativ), optional mit einem der 4 Vergleichsoperatoren &lt;, &lt;=,  &gt;= oder &gt; davor</t>
+  </si>
+  <si>
+    <t># The last number in all patient IDs of an data set will be increased</t>
+  </si>
+  <si>
+    <t># by this value. At the beginning this number will be added to all</t>
+  </si>
+  <si>
+    <t># patient IDs.</t>
+  </si>
+  <si>
+    <t># Default value is 0.</t>
+  </si>
+  <si>
+    <t># PID_LAST_NUMBER_INCREASE_INITIAL_OFFSET = 0</t>
+  </si>
+  <si>
+    <t># by this value on every loop. This number should be greater or equal</t>
+  </si>
+  <si>
+    <t># to the difference between the highest and the lowast number in all</t>
+  </si>
+  <si>
+    <t># patient IDs. If not then some patients can be generated with the same</t>
+  </si>
+  <si>
+    <t># ID.</t>
+  </si>
+  <si>
+    <t># PID_LAST_NUMBER_INCREASE_LOOP_OFFSET = 0</t>
+  </si>
+  <si>
+    <t># Count of repetitions of increasings of the patient ID. If you want to</t>
+  </si>
+  <si>
+    <t># expand a data set n times then set this value to n and the</t>
+  </si>
+  <si>
+    <t># PID_LAST_NUMBER_INCREASE_START_OFFSET in the described way.</t>
+  </si>
+  <si>
+    <t># PID_LAST_NUMBER_INCREASE_LOOP_COUNT = 0</t>
+  </si>
+  <si>
+    <t># map then the default is 1.</t>
+  </si>
+  <si>
+    <t>#START_ID_CONSENT = 1</t>
+  </si>
+  <si>
+    <t>#START_ID_DIAGNOSIS = 1</t>
+  </si>
+  <si>
+    <t>#START_ID_ENCOUNTER_LEVEL_2 = 1</t>
+  </si>
+  <si>
+    <t>#START_ID_MEDICATION_ADMINISTRATION = 1</t>
+  </si>
+  <si>
+    <t>#START_ID_MEDICATION_STATEMENT = 1</t>
+  </si>
+  <si>
+    <t>#START_ID_OBSERVATION_LABORATORY = 1</t>
+  </si>
+  <si>
+    <t>#START_ID_OBSERVATION_VITAL_SIGNS = 1</t>
+  </si>
+  <si>
+    <t>#START_ID_PROCEDURE = 1</t>
+  </si>
+  <si>
+    <t># This prefix will be added to all patient IDs.</t>
+  </si>
+  <si>
+    <t># The default is an empty string.</t>
+  </si>
+  <si>
+    <t># PID_PREFIX = ANY_STRING</t>
+  </si>
+  <si>
+    <t># This suffix will be added to all patient IDs.</t>
+  </si>
+  <si>
+    <t># PID_SUFFIX = ANY_STRING</t>
+  </si>
+  <si>
+    <t># set. Use multiple converter option sheets #</t>
+  </si>
+  <si>
+    <t># converter option files for the same data  #</t>
+  </si>
+  <si>
+    <t># There can be defined multiple of this     #</t>
+  </si>
+  <si>
+    <t># Options to control the conversion.        #</t>
+  </si>
+  <si>
+    <t>#############################################</t>
+  </si>
+  <si>
+    <t># to create resources with different        #</t>
+  </si>
+  <si>
+    <t># references to each other.                 #</t>
   </si>
 </sst>
 </file>
@@ -3376,7 +3448,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -3473,6 +3545,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Erklärender Text" xfId="4" builtinId="53"/>
@@ -4246,7 +4320,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="71" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -7882,9 +7956,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961B0353-4A30-49CF-9E96-AB439FF3F972}">
-  <dimension ref="A1:A108"/>
+  <dimension ref="A1:A150"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -7894,464 +7970,462 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="74" t="s">
-        <v>943</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="74" t="s">
-        <v>944</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="74" t="s">
-        <v>943</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="74"/>
+      <c r="A4" s="74" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="74" t="s">
-        <v>945</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="74" t="s">
-        <v>946</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="74" t="s">
-        <v>971</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="74" t="s">
-        <v>972</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="74" t="s">
-        <v>973</v>
-      </c>
+      <c r="A9" s="74"/>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="74" t="s">
-        <v>974</v>
+        <v>943</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="74" t="s">
-        <v>975</v>
+        <v>944</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="74" t="s">
-        <v>976</v>
+        <v>961</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="74" t="s">
-        <v>945</v>
+        <v>962</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="74" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="74" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="74" t="s">
-        <v>949</v>
+        <v>965</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="74" t="s">
-        <v>950</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="74" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="74" t="s">
-        <v>952</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="74" t="s">
-        <v>953</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="74" t="s">
-        <v>954</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="74"/>
+      <c r="A22" s="74" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="74"/>
+      <c r="A23" s="74" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="74" t="s">
-        <v>945</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="74" t="s">
-        <v>977</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="74" t="s">
-        <v>993</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="74" t="s">
-        <v>985</v>
-      </c>
+      <c r="A27" s="74"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="74" t="s">
-        <v>994</v>
-      </c>
+      <c r="A28" s="74"/>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="74" t="s">
-        <v>995</v>
+        <v>943</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="74" t="s">
-        <v>978</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="74" t="s">
-        <v>979</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="74" t="s">
-        <v>996</v>
+        <v>943</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="74" t="s">
-        <v>980</v>
+      <c r="A33" s="78" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="74" t="s">
-        <v>981</v>
-      </c>
+      <c r="A34" s="74"/>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="74" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="74" t="s">
-        <v>992</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="74" t="s">
-        <v>982</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="74"/>
+      <c r="A38" s="74" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="74" t="s">
-        <v>983</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="74" t="s">
-        <v>984</v>
-      </c>
+      <c r="A40" s="74"/>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="74" t="s">
-        <v>997</v>
+        <v>943</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="74" t="s">
-        <v>985</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="74" t="s">
-        <v>998</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="74" t="s">
-        <v>986</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="74" t="s">
-        <v>987</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="75" t="s">
-        <v>988</v>
+        <v>943</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="75" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="75" t="s">
-        <v>980</v>
+      <c r="A47" s="79" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="75" t="s">
-        <v>989</v>
+        <v>943</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="75" t="s">
-        <v>945</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="75" t="s">
-        <v>1000</v>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="75" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="75" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="75" t="s">
-        <v>945</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="75" t="s">
-        <v>977</v>
+        <v>943</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="75" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="75" t="s">
-        <v>985</v>
+      <c r="A56" s="79" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="75" t="s">
-        <v>994</v>
+        <v>943</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="75" t="s">
-        <v>1002</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="75" t="s">
-        <v>978</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="75" t="s">
-        <v>979</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="75" t="s">
-        <v>1003</v>
+        <v>943</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="75" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="75" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="75" t="s">
-        <v>945</v>
+      <c r="A63" s="79" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="75" t="s">
-        <v>1004</v>
+        <v>943</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="75" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="75" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="75" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="75" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="75" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="75" t="s">
-        <v>985</v>
+        <v>967</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="75" t="s">
-        <v>1006</v>
+        <v>968</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="75" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="75" t="s">
-        <v>987</v>
+        <v>969</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="75" t="s">
-        <v>988</v>
+        <v>970</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="75" t="s">
-        <v>1007</v>
+        <v>943</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="75" t="s">
-        <v>980</v>
+      <c r="A78" s="79" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="75" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="75" t="s">
-        <v>945</v>
+        <v>971</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="75" t="s">
-        <v>1008</v>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="75" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="75" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="75" t="s">
-        <v>945</v>
+        <v>974</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="75" t="s">
-        <v>955</v>
+        <v>987</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="75" t="s">
-        <v>956</v>
+        <v>975</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="75" t="s">
-        <v>957</v>
+        <v>976</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="75" t="s">
-        <v>958</v>
+        <v>977</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="75" t="s">
-        <v>959</v>
+        <v>988</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="75" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="75" t="s">
-        <v>961</v>
+        <v>978</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="75" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="75" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="75" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="75" t="s">
-        <v>990</v>
+      <c r="A93" s="79" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="75" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="75" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="75" t="s">
-        <v>945</v>
+        <v>990</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="75" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="75" t="s">
-        <v>965</v>
+        <v>983</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="75" t="s">
-        <v>966</v>
+        <v>991</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -8366,27 +8440,212 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="75" t="s">
-        <v>969</v>
+        <v>992</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="75" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="75" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="75" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="79" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="75" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="75" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="75" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="75" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="75" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="75" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="75" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="75" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="75" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="75" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="75" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="75" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="75" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="79" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="75" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="75" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="75" t="s">
-        <v>991</v>
+    <row r="128" spans="1:1">
+      <c r="A128" s="75" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="75" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="75" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="75" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="75" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="75" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="75" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="75" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="75" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="79" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="75" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="75" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="75" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="75" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="75" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="75" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="75" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="75" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="75" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="75" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="79" t="s">
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -9743,7 +10002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I928"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -9963,10 +10222,10 @@
         <v>43553</v>
       </c>
       <c r="H8" s="71" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="I8" s="71" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9992,10 +10251,10 @@
         <v>43554</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -10021,10 +10280,10 @@
         <v>43555</v>
       </c>
       <c r="H10" s="71" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="71" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10050,10 +10309,10 @@
         <v>43556</v>
       </c>
       <c r="H11" s="71" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10079,10 +10338,10 @@
         <v>43557</v>
       </c>
       <c r="H12" s="71" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="I12" s="71" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -26853,7 +27112,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="F2" s="76"/>
       <c r="G2" s="76"/>
@@ -29420,15 +29679,53 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">TMFEV-111023110-895</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">
-      <Url>https://tmfev.sharepoint.com/sites/tmf/mi-i/_layouts/15/DocIdRedir.aspx?ID=TMFEV-111023110-895</Url>
-      <Description>TMFEV-111023110-895</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29673,53 +29970,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">TMFEV-111023110-895</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">
+      <Url>https://tmfev.sharepoint.com/sites/tmf/mi-i/_layouts/15/DocIdRedir.aspx?ID=TMFEV-111023110-895</Url>
+      <Description>TMFEV-111023110-895</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29732,11 +29991,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B89C2DA-DD1E-4298-9623-BC864CA91962}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17381246-8561-41AA-90B8-1B77E21DFFC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="15b42a90-06dd-4669-ae82-892e5974bb2f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29762,9 +30019,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17381246-8561-41AA-90B8-1B77E21DFFC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B89C2DA-DD1E-4298-9623-BC864CA91962}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="15b42a90-06dd-4669-ae82-892e5974bb2f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/main/resources/excel/FHIR_Testdatengenerator_Vorlage.xlsx
+++ b/src/main/resources/excel/FHIR_Testdatengenerator_Vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\git\excel2fhir\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\D\Eigene Projekte\smith\TestDataGenerator_MIIGitHub\input - Vorlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660416BD-4D33-4245-BE6C-2EFFCB51FC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6557FD7-EF83-4934-857A-DB1BD039542F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2055" windowWidth="21600" windowHeight="11385" tabRatio="828" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="2" r:id="rId1"/>
@@ -26,23 +26,11 @@
     <sheet name="Konvertierungsoptionen" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">DocumentReference!$A$1:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Laborbefund!$A$1:$G$682</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Medikation!$A$1:$P$1079</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -54,10 +42,19 @@
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Ist Beginn und Enddatum gewünscht?</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -72,10 +69,19 @@
   <commentList>
     <comment ref="D39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Keine Ahnung, wie die kodiert werden...</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -83,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="1057">
   <si>
     <t>Patient-ID</t>
   </si>
@@ -2188,9 +2194,6 @@
     <t>Hauptdiagnose</t>
   </si>
   <si>
-    <t>Einwilligung</t>
-  </si>
-  <si>
     <t>ja</t>
   </si>
   <si>
@@ -3223,10 +3226,40 @@
     <t>pom.xml</t>
   </si>
   <si>
-    <t>URI</t>
-  </si>
-  <si>
     <t>Embed</t>
+  </si>
+  <si>
+    <t>ja/nein</t>
+  </si>
+  <si>
+    <t>Achtung: hier können kommasepariert mehrere Versorgungsfall-Nummern angegeben werden.</t>
+  </si>
+  <si>
+    <t>Wird mind. eine Versorgungsfall-Nr angegeben, dann wird auch eine Context-Referenz hin zum Versorgungsfall (Encounter) getsetzt.</t>
+  </si>
+  <si>
+    <t>Wird keine Versorgungsfall-Nr nicht angegeben, dann wird keine Context-Referenz zum Versorgungfall (Encounter) gesetzt.</t>
+  </si>
+  <si>
+    <t>Dateipfad</t>
+  </si>
+  <si>
+    <t>Dateipfad = Pfad zu einer Datei. Absolut oder relativ von der Hauptdatei der Anwendung.</t>
+  </si>
+  <si>
+    <t>Embed = Nur wenn 'ja', dann wird der Dateiinhalt base64 codiert in die FHIR-Resource geschrieben.</t>
+  </si>
+  <si>
+    <t>Zeilen, bei denen nur in Patient ID und/oder Versorgunsfall-Nr etwas steht, werden igoriert.</t>
+  </si>
+  <si>
+    <t>C:\pom.xml</t>
+  </si>
+  <si>
+    <t>Im Beispiel werden bei einem Patienten alle Kombinationen gültiger Beispielwerte einmal genutzt.</t>
+  </si>
+  <si>
+    <t>Beim unteren Patienten ist ein absoluter Pfad angegeben, bei allen anderen ein relativer oder keiner.</t>
   </si>
 </sst>
 </file>
@@ -3862,8 +3895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3904,36 +3937,36 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>709</v>
-      </c>
       <c r="N1" s="47" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3950,18 +3983,18 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="47" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3981,18 +4014,18 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="47" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4012,18 +4045,18 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="47" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4045,13 +4078,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4071,18 +4104,18 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="47" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -4102,18 +4135,18 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="47" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -4133,18 +4166,18 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="47" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -4164,18 +4197,18 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="47" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -4197,13 +4230,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -4223,7 +4256,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="47" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4233,7 +4266,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="47" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4243,7 +4276,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="47" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4253,7 +4286,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="47" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4263,7 +4296,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="47" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4273,7 +4306,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="47" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="17" spans="9:14">
@@ -4290,7 +4323,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="47" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="19" spans="9:14">
@@ -4300,7 +4333,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="47" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="20" spans="9:14">
@@ -4310,7 +4343,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="47" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="21" spans="9:14">
@@ -4320,7 +4353,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="47" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="22" spans="9:14">
@@ -4330,7 +4363,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="47" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="23" spans="9:14">
@@ -4340,7 +4373,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="47" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="24" spans="9:14">
@@ -4350,7 +4383,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="47" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25" spans="9:14">
@@ -4367,7 +4400,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="9:14">
@@ -4392,7 +4425,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="47" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="30" spans="9:14">
@@ -4402,7 +4435,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="46" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="31" spans="9:14">
@@ -4412,7 +4445,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="46" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="32" spans="9:14">
@@ -7741,7 +7774,7 @@
   <dimension ref="A2:S252"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -7762,7 +7795,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F2" s="54"/>
       <c r="G2" s="54"/>
@@ -7802,13 +7835,13 @@
         <v>108</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>701</v>
+        <v>1046</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7846,13 +7879,13 @@
         <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="N4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7890,13 +7923,13 @@
         <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="N5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7931,7 +7964,7 @@
         <v>128</v>
       </c>
       <c r="N6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -7966,7 +7999,7 @@
         <v>137</v>
       </c>
       <c r="N7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="S7" s="2"/>
     </row>
@@ -8002,7 +8035,7 @@
         <v>145</v>
       </c>
       <c r="N8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="S8" s="2"/>
     </row>
@@ -8035,7 +8068,7 @@
         <v>154</v>
       </c>
       <c r="N9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -8064,7 +8097,7 @@
         <v>160</v>
       </c>
       <c r="N10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -8093,7 +8126,7 @@
         <v>167</v>
       </c>
       <c r="N11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -8116,7 +8149,7 @@
         <v>172</v>
       </c>
       <c r="N12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -8139,7 +8172,7 @@
         <v>177</v>
       </c>
       <c r="N13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -8159,7 +8192,7 @@
         <v>182</v>
       </c>
       <c r="N14" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -8179,7 +8212,7 @@
         <v>187</v>
       </c>
       <c r="N15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -10344,42 +10377,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="50" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="50" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="50" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="50" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="50" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="50" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="50" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="50" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -10387,87 +10420,87 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="50" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="50" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="50" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="50" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="50" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="50" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="50" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="50" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="50" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="50" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="50" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="50" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="50" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="50" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="50" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="50" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="50" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -10478,27 +10511,27 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="50" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="50" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="50" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="50" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="52" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -10506,27 +10539,27 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="50" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="50" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="50" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="50" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="50" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -10534,492 +10567,492 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="50" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="50" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="50" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="50" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="50" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="53" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="51" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="51" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="51" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="51" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="51" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="53" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="51" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="51" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="51" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="53" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="51" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="51" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="51" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="51" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="51" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="51" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="51" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="51" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="51" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="51" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="53" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="51" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="51" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="51" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="51" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="51" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="51" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="51" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="51" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="51" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="51" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="51" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="51" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="53" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="51" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="51" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="51" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="51" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="51" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="51" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="51" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="51" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="51" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="51" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="53" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="51" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="51" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="51" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="51" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="51" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="51" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="51" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="51" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="51" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="51" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="51" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="51" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="53" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="51" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="51" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="51" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="51" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="51" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="51" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="51" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="51" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="51" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="53" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="51" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="51" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="51" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="51" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="51" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="51" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="51" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="51" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="53" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
@@ -11051,7 +11084,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -11063,12 +11096,12 @@
         <v>13</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11083,12 +11116,12 @@
         <v>109</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -11103,12 +11136,12 @@
         <v>109</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -11125,7 +11158,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -11140,12 +11173,12 @@
         <v>109</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -11160,12 +11193,12 @@
         <v>109</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -11180,12 +11213,12 @@
         <v>109</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -11202,7 +11235,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -11217,12 +11250,12 @@
         <v>109</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -11237,12 +11270,12 @@
         <v>109</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -11257,12 +11290,12 @@
         <v>109</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -11279,7 +11312,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -11296,7 +11329,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -11313,7 +11346,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -11330,7 +11363,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -11347,7 +11380,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -11364,7 +11397,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -11381,7 +11414,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -11396,12 +11429,12 @@
         <v>109</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -11418,7 +11451,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -11805,7 +11838,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -11823,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -11835,12 +11868,12 @@
         <v>15</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11855,12 +11888,12 @@
         <v>203</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -11875,12 +11908,12 @@
         <v>208</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -11895,12 +11928,12 @@
         <v>203</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -11915,12 +11948,12 @@
         <v>208</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -11935,12 +11968,12 @@
         <v>203</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -11958,7 +11991,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -11978,7 +12011,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -11998,7 +12031,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -12015,7 +12048,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -12032,7 +12065,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -12049,7 +12082,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -12066,7 +12099,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -12083,7 +12116,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -12100,7 +12133,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -12117,7 +12150,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -12135,7 +12168,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -12150,12 +12183,12 @@
         <v>203</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -12173,7 +12206,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -12191,7 +12224,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -12397,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>28</v>
@@ -12415,157 +12448,157 @@
         <v>35</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="D2" t="s">
         <v>773</v>
-      </c>
-      <c r="D2" t="s">
-        <v>774</v>
       </c>
       <c r="E2">
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G2" s="31">
         <v>43547</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="D3" t="s">
         <v>773</v>
-      </c>
-      <c r="D3" t="s">
-        <v>774</v>
       </c>
       <c r="E3">
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G3" s="31">
         <v>43548</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="D4" t="s">
         <v>773</v>
-      </c>
-      <c r="D4" t="s">
-        <v>774</v>
       </c>
       <c r="E4">
         <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G4" s="31">
         <v>43549</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="D5" t="s">
         <v>773</v>
-      </c>
-      <c r="D5" t="s">
-        <v>774</v>
       </c>
       <c r="E5">
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G5" s="31">
         <v>43550</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="D6" t="s">
         <v>773</v>
-      </c>
-      <c r="D6" t="s">
-        <v>774</v>
       </c>
       <c r="E6">
         <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G6" s="31">
         <v>43551</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="D7" t="s">
         <v>773</v>
-      </c>
-      <c r="D7" t="s">
-        <v>774</v>
       </c>
       <c r="E7">
         <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G7" s="31">
         <v>43552</v>
@@ -12574,167 +12607,167 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="D8" t="s">
         <v>773</v>
-      </c>
-      <c r="D8" t="s">
-        <v>774</v>
       </c>
       <c r="E8">
         <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G8" s="31">
         <v>43553</v>
       </c>
       <c r="H8" s="47" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="47" t="s">
         <v>1001</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="D9" t="s">
         <v>776</v>
-      </c>
-      <c r="D9" t="s">
-        <v>777</v>
       </c>
       <c r="E9">
         <v>730</v>
       </c>
       <c r="F9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G9" s="31">
         <v>43554</v>
       </c>
       <c r="H9" s="47" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I9" s="47" t="s">
         <v>1003</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="D10" t="s">
         <v>776</v>
-      </c>
-      <c r="D10" t="s">
-        <v>777</v>
       </c>
       <c r="E10">
         <v>550</v>
       </c>
       <c r="F10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G10" s="31">
         <v>43555</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="D11" t="s">
         <v>776</v>
-      </c>
-      <c r="D11" t="s">
-        <v>777</v>
       </c>
       <c r="E11">
         <v>540</v>
       </c>
       <c r="F11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G11" s="31">
         <v>43556</v>
       </c>
       <c r="H11" s="47" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I11" s="47" t="s">
         <v>1005</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="D12" t="s">
         <v>776</v>
-      </c>
-      <c r="D12" t="s">
-        <v>777</v>
       </c>
       <c r="E12">
         <v>554</v>
       </c>
       <c r="F12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G12" s="31">
         <v>43557</v>
       </c>
       <c r="H12" s="47" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I12" s="47" t="s">
         <v>1007</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="D13" t="s">
         <v>779</v>
-      </c>
-      <c r="D13" t="s">
-        <v>780</v>
       </c>
       <c r="E13">
         <v>0.34</v>
       </c>
       <c r="F13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G13" s="31">
         <v>43558</v>
@@ -12742,22 +12775,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="D14" t="s">
         <v>779</v>
-      </c>
-      <c r="D14" t="s">
-        <v>780</v>
       </c>
       <c r="E14">
         <v>0.02</v>
       </c>
       <c r="F14" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G14" s="31">
         <v>43559</v>
@@ -12765,22 +12798,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="D15" t="s">
         <v>782</v>
-      </c>
-      <c r="D15" t="s">
-        <v>783</v>
       </c>
       <c r="E15">
         <v>0.54</v>
       </c>
       <c r="F15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G15" s="31">
         <v>43560</v>
@@ -12788,48 +12821,48 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="D16" t="s">
         <v>785</v>
-      </c>
-      <c r="D16" t="s">
-        <v>786</v>
       </c>
       <c r="E16">
         <v>1.71</v>
       </c>
       <c r="F16" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G16" s="31">
         <v>43561</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="D17" t="s">
         <v>788</v>
-      </c>
-      <c r="D17" t="s">
-        <v>789</v>
       </c>
       <c r="E17">
         <v>1.18</v>
       </c>
       <c r="F17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G17" s="31">
         <v>43562</v>
@@ -12837,22 +12870,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>790</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>791</v>
       </c>
       <c r="E18" s="11">
         <v>112</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G18" s="31">
         <v>43563</v>
@@ -12860,22 +12893,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>790</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>791</v>
       </c>
       <c r="E19" s="11">
         <v>130</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G19" s="31">
         <v>43564</v>
@@ -12883,22 +12916,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>790</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>791</v>
       </c>
       <c r="E20" s="11">
         <v>107</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G20" s="31">
         <v>43565</v>
@@ -12906,22 +12939,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>790</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>791</v>
       </c>
       <c r="E21" s="11">
         <v>98</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G21" s="31">
         <v>43566</v>
@@ -12929,22 +12962,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="D22" t="s">
         <v>793</v>
-      </c>
-      <c r="D22" t="s">
-        <v>794</v>
       </c>
       <c r="E22" s="13">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G22" s="31">
         <v>43567</v>
@@ -12952,22 +12985,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="D23" t="s">
         <v>793</v>
-      </c>
-      <c r="D23" t="s">
-        <v>794</v>
       </c>
       <c r="E23" s="13">
         <v>0.9</v>
       </c>
       <c r="F23" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G23" s="31">
         <v>43568</v>
@@ -12975,22 +13008,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="D24" t="s">
         <v>793</v>
-      </c>
-      <c r="D24" t="s">
-        <v>794</v>
       </c>
       <c r="E24" s="13">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G24" s="31">
         <v>43569</v>
@@ -12998,22 +13031,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="D25" t="s">
         <v>793</v>
-      </c>
-      <c r="D25" t="s">
-        <v>794</v>
       </c>
       <c r="E25" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="F25" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G25" s="31">
         <v>43570</v>
@@ -13021,22 +13054,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="D26" t="s">
         <v>796</v>
-      </c>
-      <c r="D26" t="s">
-        <v>797</v>
       </c>
       <c r="E26">
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G26" s="31">
         <v>43571</v>
@@ -13044,22 +13077,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="D27" t="s">
         <v>796</v>
-      </c>
-      <c r="D27" t="s">
-        <v>797</v>
       </c>
       <c r="E27">
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G27" s="31">
         <v>43572</v>
@@ -13067,22 +13100,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="D28" t="s">
         <v>796</v>
-      </c>
-      <c r="D28" t="s">
-        <v>797</v>
       </c>
       <c r="E28">
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G28" s="31">
         <v>43573</v>
@@ -13090,22 +13123,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="D29" t="s">
         <v>796</v>
-      </c>
-      <c r="D29" t="s">
-        <v>797</v>
       </c>
       <c r="E29">
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G29" s="31">
         <v>43574</v>
@@ -13113,22 +13146,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D30" t="s">
         <v>799</v>
-      </c>
-      <c r="D30" t="s">
-        <v>800</v>
       </c>
       <c r="E30">
         <v>772</v>
       </c>
       <c r="F30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G30" s="31">
         <v>43575</v>
@@ -13136,22 +13169,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="D31" t="s">
         <v>802</v>
-      </c>
-      <c r="D31" t="s">
-        <v>803</v>
       </c>
       <c r="E31">
         <v>140</v>
       </c>
       <c r="F31" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G31" s="31">
         <v>43576</v>
@@ -13159,22 +13192,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="D32" t="s">
         <v>802</v>
-      </c>
-      <c r="D32" t="s">
-        <v>803</v>
       </c>
       <c r="E32">
         <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G32" s="31">
         <v>43577</v>
@@ -13182,22 +13215,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="D33" t="s">
         <v>802</v>
-      </c>
-      <c r="D33" t="s">
-        <v>803</v>
       </c>
       <c r="E33">
         <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G33" s="31">
         <v>43578</v>
@@ -13205,22 +13238,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="D34" t="s">
         <v>805</v>
-      </c>
-      <c r="D34" t="s">
-        <v>806</v>
       </c>
       <c r="E34">
         <v>3.5</v>
       </c>
       <c r="F34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G34" s="31">
         <v>43579</v>
@@ -13228,22 +13261,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="D35" t="s">
         <v>805</v>
-      </c>
-      <c r="D35" t="s">
-        <v>806</v>
       </c>
       <c r="E35">
         <v>4.0999999999999996</v>
       </c>
       <c r="F35" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G35" s="31">
         <v>43580</v>
@@ -13251,22 +13284,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="D36" t="s">
         <v>805</v>
-      </c>
-      <c r="D36" t="s">
-        <v>806</v>
       </c>
       <c r="E36">
         <v>4.2</v>
       </c>
       <c r="F36" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G36" s="31">
         <v>43581</v>
@@ -13274,22 +13307,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="D37" t="s">
         <v>805</v>
-      </c>
-      <c r="D37" t="s">
-        <v>806</v>
       </c>
       <c r="E37">
         <v>4.0999999999999996</v>
       </c>
       <c r="F37" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G37" s="31">
         <v>43582</v>
@@ -13297,22 +13330,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="D38" t="s">
         <v>805</v>
-      </c>
-      <c r="D38" t="s">
-        <v>806</v>
       </c>
       <c r="E38">
         <v>4.3</v>
       </c>
       <c r="F38" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G38" s="31">
         <v>43583</v>
@@ -13320,22 +13353,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="D39" t="s">
         <v>805</v>
-      </c>
-      <c r="D39" t="s">
-        <v>806</v>
       </c>
       <c r="E39">
         <v>4.8</v>
       </c>
       <c r="F39" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G39" s="31">
         <v>43584</v>
@@ -13343,22 +13376,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="D40" t="s">
         <v>805</v>
-      </c>
-      <c r="D40" t="s">
-        <v>806</v>
       </c>
       <c r="E40">
         <v>4.9000000000000004</v>
       </c>
       <c r="F40" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G40" s="31">
         <v>43585</v>
@@ -13366,22 +13399,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="D41" t="s">
         <v>805</v>
-      </c>
-      <c r="D41" t="s">
-        <v>806</v>
       </c>
       <c r="E41">
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G41" s="31">
         <v>43586</v>
@@ -16756,7 +16789,7 @@
   <dimension ref="A1:J161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -16777,7 +16810,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>36</v>
@@ -16792,7 +16825,7 @@
         <v>39</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -16800,16 +16833,16 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>745</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>746</v>
       </c>
       <c r="E2" s="3">
         <v>43546</v>
@@ -16818,23 +16851,23 @@
         <v>700</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2" s="19"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1">
       <c r="A3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>711</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>712</v>
       </c>
       <c r="E3" s="3">
         <v>43546</v>
@@ -16843,23 +16876,23 @@
         <v>40</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H3" s="19"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1">
       <c r="A4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E4" s="3">
         <v>43548</v>
@@ -16868,22 +16901,22 @@
         <v>700</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1">
       <c r="A5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E5" s="3">
         <v>43550</v>
@@ -16892,22 +16925,22 @@
         <v>700</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1">
       <c r="A6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E6" s="3">
         <v>43550</v>
@@ -16916,22 +16949,22 @@
         <v>40</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1">
       <c r="A7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E7" s="3">
         <v>43552</v>
@@ -16940,22 +16973,22 @@
         <v>700</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1">
       <c r="A8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E8" s="3">
         <v>43554</v>
@@ -16969,16 +17002,16 @@
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1">
       <c r="A9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E9" s="3">
         <v>43554</v>
@@ -16987,23 +17020,23 @@
         <v>40</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1">
       <c r="A10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E10" s="3">
         <v>43556</v>
@@ -17012,7 +17045,7 @@
         <v>700</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -17020,16 +17053,16 @@
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1">
       <c r="A11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E11" s="3">
         <v>43558</v>
@@ -17038,7 +17071,7 @@
         <v>700</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -17046,16 +17079,16 @@
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1">
       <c r="A12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E12" s="3">
         <v>43558</v>
@@ -17064,7 +17097,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -17072,16 +17105,16 @@
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1">
       <c r="A13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E13" s="3">
         <v>43560</v>
@@ -17096,16 +17129,16 @@
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1">
       <c r="A14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E14" s="3">
         <v>43562</v>
@@ -17114,23 +17147,23 @@
         <v>700</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1">
       <c r="A15" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E15" s="3">
         <v>43562</v>
@@ -17144,16 +17177,16 @@
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1">
       <c r="A16" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E16" s="3">
         <v>43564</v>
@@ -17167,16 +17200,16 @@
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1">
       <c r="A17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E17" s="3">
         <v>43566</v>
@@ -17190,16 +17223,16 @@
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1">
       <c r="A18" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E18" s="3">
         <v>43566</v>
@@ -17212,16 +17245,16 @@
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1">
       <c r="A19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E19" s="3">
         <v>43568</v>
@@ -17235,16 +17268,16 @@
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1">
       <c r="A20" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E20" s="3">
         <v>43570</v>
@@ -17259,16 +17292,16 @@
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1">
       <c r="A21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E21" s="3">
         <v>43570</v>
@@ -17283,16 +17316,16 @@
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1">
       <c r="A22" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E22" s="3">
         <v>43572</v>
@@ -17307,16 +17340,16 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1">
       <c r="A23" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E23" s="3">
         <v>43574</v>
@@ -17331,16 +17364,16 @@
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1">
       <c r="A24" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E24" s="3">
         <v>43574</v>
@@ -17355,16 +17388,16 @@
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1">
       <c r="A25" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E25" s="3">
         <v>43576</v>
@@ -17379,16 +17412,16 @@
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1">
       <c r="A26" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E26" s="3">
         <v>43578</v>
@@ -17403,16 +17436,16 @@
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1">
       <c r="A27" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E27" s="3">
         <v>43578</v>
@@ -17427,16 +17460,16 @@
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1">
       <c r="A28" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E28" s="3">
         <v>43580</v>
@@ -17451,16 +17484,16 @@
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1">
       <c r="A29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E29" s="3">
         <v>43582</v>
@@ -17475,16 +17508,16 @@
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1">
       <c r="A30" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E30" s="3">
         <v>43582</v>
@@ -17499,16 +17532,16 @@
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1">
       <c r="A31" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E31" s="3">
         <v>43584</v>
@@ -17965,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>44</v>
@@ -17977,147 +18010,147 @@
         <v>38</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D2" t="s">
         <v>809</v>
-      </c>
-      <c r="D2" t="s">
-        <v>810</v>
       </c>
       <c r="E2" s="31">
         <v>43547</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>810</v>
+      </c>
+      <c r="D3" t="s">
         <v>811</v>
-      </c>
-      <c r="D3" t="s">
-        <v>812</v>
       </c>
       <c r="E3" s="31">
         <v>43548</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>812</v>
+      </c>
+      <c r="D4" t="s">
         <v>813</v>
-      </c>
-      <c r="D4" t="s">
-        <v>814</v>
       </c>
       <c r="E4" s="31">
         <v>43549</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>808</v>
+      </c>
+      <c r="D5" t="s">
         <v>809</v>
-      </c>
-      <c r="D5" t="s">
-        <v>810</v>
       </c>
       <c r="E5" s="31">
         <v>43550</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>814</v>
+      </c>
+      <c r="D6" t="s">
         <v>815</v>
-      </c>
-      <c r="D6" t="s">
-        <v>816</v>
       </c>
       <c r="E6" s="31">
         <v>43551</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>816</v>
+      </c>
+      <c r="D7" t="s">
         <v>817</v>
-      </c>
-      <c r="D7" t="s">
-        <v>818</v>
       </c>
       <c r="E7" s="31">
         <v>43552</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>818</v>
+      </c>
+      <c r="D8" t="s">
         <v>819</v>
-      </c>
-      <c r="D8" t="s">
-        <v>820</v>
       </c>
       <c r="E8" s="31">
         <v>43553</v>
@@ -18127,79 +18160,79 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>820</v>
+      </c>
+      <c r="D9" t="s">
         <v>821</v>
-      </c>
-      <c r="D9" t="s">
-        <v>822</v>
       </c>
       <c r="E9" s="31">
         <v>43554</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>822</v>
+      </c>
+      <c r="D10" t="s">
         <v>823</v>
-      </c>
-      <c r="D10" t="s">
-        <v>824</v>
       </c>
       <c r="E10" s="31">
         <v>43555</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>824</v>
+      </c>
+      <c r="D11" t="s">
         <v>825</v>
-      </c>
-      <c r="D11" t="s">
-        <v>826</v>
       </c>
       <c r="E11" s="31">
         <v>43556</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>826</v>
+      </c>
+      <c r="D12" t="s">
         <v>827</v>
-      </c>
-      <c r="D12" t="s">
-        <v>828</v>
       </c>
       <c r="E12" s="31">
         <v>43557</v>
@@ -18209,16 +18242,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
+        <v>828</v>
+      </c>
+      <c r="D13" t="s">
         <v>829</v>
-      </c>
-      <c r="D13" t="s">
-        <v>830</v>
       </c>
       <c r="E13" s="31">
         <v>43558</v>
@@ -18227,37 +18260,37 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>830</v>
+      </c>
+      <c r="D14" t="s">
         <v>831</v>
-      </c>
-      <c r="D14" t="s">
-        <v>832</v>
       </c>
       <c r="E14" s="31">
         <v>43559</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" s="19" customFormat="1">
       <c r="A15" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>820</v>
+      </c>
+      <c r="D15" t="s">
         <v>821</v>
-      </c>
-      <c r="D15" t="s">
-        <v>822</v>
       </c>
       <c r="E15" s="31">
         <v>43560</v>
@@ -18265,16 +18298,16 @@
     </row>
     <row r="16" spans="1:8" s="19" customFormat="1">
       <c r="A16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
+        <v>808</v>
+      </c>
+      <c r="D16" t="s">
         <v>809</v>
-      </c>
-      <c r="D16" t="s">
-        <v>810</v>
       </c>
       <c r="E16" s="31">
         <v>43561</v>
@@ -18282,16 +18315,16 @@
     </row>
     <row r="17" spans="1:5" s="19" customFormat="1">
       <c r="A17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
+        <v>832</v>
+      </c>
+      <c r="D17" t="s">
         <v>833</v>
-      </c>
-      <c r="D17" t="s">
-        <v>834</v>
       </c>
       <c r="E17" s="31">
         <v>43562</v>
@@ -18299,16 +18332,16 @@
     </row>
     <row r="18" spans="1:5" s="19" customFormat="1">
       <c r="A18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>834</v>
+      </c>
+      <c r="D18" t="s">
         <v>835</v>
-      </c>
-      <c r="D18" t="s">
-        <v>836</v>
       </c>
       <c r="E18" s="31">
         <v>43563</v>
@@ -18316,16 +18349,16 @@
     </row>
     <row r="19" spans="1:5" s="19" customFormat="1">
       <c r="A19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
+        <v>836</v>
+      </c>
+      <c r="D19" t="s">
         <v>837</v>
-      </c>
-      <c r="D19" t="s">
-        <v>838</v>
       </c>
       <c r="E19" s="31">
         <v>43564</v>
@@ -18333,16 +18366,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
+        <v>838</v>
+      </c>
+      <c r="D20" t="s">
         <v>839</v>
-      </c>
-      <c r="D20" t="s">
-        <v>840</v>
       </c>
       <c r="E20" s="31">
         <v>43565</v>
@@ -18350,16 +18383,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
+        <v>838</v>
+      </c>
+      <c r="D21" t="s">
         <v>839</v>
-      </c>
-      <c r="D21" t="s">
-        <v>840</v>
       </c>
       <c r="E21" s="31">
         <v>43566</v>
@@ -18367,16 +18400,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>838</v>
+      </c>
+      <c r="D22" t="s">
         <v>839</v>
-      </c>
-      <c r="D22" t="s">
-        <v>840</v>
       </c>
       <c r="E22" s="31">
         <v>43567</v>
@@ -18384,16 +18417,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
+        <v>830</v>
+      </c>
+      <c r="D23" t="s">
         <v>831</v>
-      </c>
-      <c r="D23" t="s">
-        <v>832</v>
       </c>
       <c r="E23" s="31">
         <v>43568</v>
@@ -18401,16 +18434,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
+        <v>840</v>
+      </c>
+      <c r="D24" t="s">
         <v>841</v>
-      </c>
-      <c r="D24" t="s">
-        <v>842</v>
       </c>
       <c r="E24" s="31">
         <v>43569</v>
@@ -18418,16 +18451,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
+        <v>842</v>
+      </c>
+      <c r="D25" t="s">
         <v>843</v>
-      </c>
-      <c r="D25" t="s">
-        <v>844</v>
       </c>
       <c r="E25" s="31">
         <v>43570</v>
@@ -18435,16 +18468,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D26" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E26" s="31">
         <v>43571</v>
@@ -18452,16 +18485,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>830</v>
+      </c>
+      <c r="D27" t="s">
         <v>831</v>
-      </c>
-      <c r="D27" t="s">
-        <v>832</v>
       </c>
       <c r="E27" s="31">
         <v>43572</v>
@@ -18469,16 +18502,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
+        <v>808</v>
+      </c>
+      <c r="D28" t="s">
         <v>809</v>
-      </c>
-      <c r="D28" t="s">
-        <v>810</v>
       </c>
       <c r="E28" s="31">
         <v>43573</v>
@@ -18486,16 +18519,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
+        <v>810</v>
+      </c>
+      <c r="D29" t="s">
         <v>811</v>
-      </c>
-      <c r="D29" t="s">
-        <v>812</v>
       </c>
       <c r="E29" s="31">
         <v>43574</v>
@@ -18503,16 +18536,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
+        <v>812</v>
+      </c>
+      <c r="D30" t="s">
         <v>813</v>
-      </c>
-      <c r="D30" t="s">
-        <v>814</v>
       </c>
       <c r="E30" s="31">
         <v>43575</v>
@@ -18520,16 +18553,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
+        <v>808</v>
+      </c>
+      <c r="D31" t="s">
         <v>809</v>
-      </c>
-      <c r="D31" t="s">
-        <v>810</v>
       </c>
       <c r="E31" s="31">
         <v>43576</v>
@@ -18537,16 +18570,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" s="36" t="s">
+        <v>814</v>
+      </c>
+      <c r="D32" t="s">
         <v>815</v>
-      </c>
-      <c r="D32" t="s">
-        <v>816</v>
       </c>
       <c r="E32" s="31">
         <v>43577</v>
@@ -18554,16 +18587,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" s="36" t="s">
+        <v>816</v>
+      </c>
+      <c r="D33" t="s">
         <v>817</v>
-      </c>
-      <c r="D33" t="s">
-        <v>818</v>
       </c>
       <c r="E33" s="31">
         <v>43578</v>
@@ -18571,16 +18604,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
+        <v>818</v>
+      </c>
+      <c r="D34" t="s">
         <v>819</v>
-      </c>
-      <c r="D34" t="s">
-        <v>820</v>
       </c>
       <c r="E34" s="31">
         <v>43579</v>
@@ -18588,16 +18621,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
+        <v>820</v>
+      </c>
+      <c r="D35" t="s">
         <v>821</v>
-      </c>
-      <c r="D35" t="s">
-        <v>822</v>
       </c>
       <c r="E35" s="31">
         <v>43580</v>
@@ -18605,16 +18638,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
+        <v>822</v>
+      </c>
+      <c r="D36" t="s">
         <v>823</v>
-      </c>
-      <c r="D36" t="s">
-        <v>824</v>
       </c>
       <c r="E36" s="31">
         <v>43581</v>
@@ -18622,16 +18655,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
+        <v>824</v>
+      </c>
+      <c r="D37" t="s">
         <v>825</v>
-      </c>
-      <c r="D37" t="s">
-        <v>826</v>
       </c>
       <c r="E37" s="31">
         <v>43582</v>
@@ -18639,16 +18672,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
+        <v>826</v>
+      </c>
+      <c r="D38" t="s">
         <v>827</v>
-      </c>
-      <c r="D38" t="s">
-        <v>828</v>
       </c>
       <c r="E38" s="31">
         <v>43583</v>
@@ -18656,16 +18689,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
+        <v>828</v>
+      </c>
+      <c r="D39" t="s">
         <v>829</v>
-      </c>
-      <c r="D39" t="s">
-        <v>830</v>
       </c>
       <c r="E39" s="31">
         <v>43584</v>
@@ -18673,16 +18706,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
+        <v>830</v>
+      </c>
+      <c r="D40" t="s">
         <v>831</v>
-      </c>
-      <c r="D40" t="s">
-        <v>832</v>
       </c>
       <c r="E40" s="31">
         <v>43585</v>
@@ -18690,16 +18723,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
+        <v>820</v>
+      </c>
+      <c r="D41" t="s">
         <v>821</v>
-      </c>
-      <c r="D41" t="s">
-        <v>822</v>
       </c>
       <c r="E41" s="31">
         <v>43586</v>
@@ -18755,13 +18788,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>47</v>
@@ -18800,12 +18833,12 @@
         <v>54</v>
       </c>
       <c r="Q1" s="47" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1">
       <c r="A2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -18821,10 +18854,10 @@
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2" s="38"/>
       <c r="I2"/>
@@ -18848,12 +18881,12 @@
         <v>1</v>
       </c>
       <c r="Q2" s="47" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1">
       <c r="A3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -18862,16 +18895,16 @@
         <v>43548</v>
       </c>
       <c r="D3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E3" t="s">
         <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H3" s="38"/>
       <c r="I3"/>
@@ -18897,12 +18930,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1">
       <c r="A4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -18918,10 +18951,10 @@
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4"/>
@@ -18945,12 +18978,12 @@
         <v>1</v>
       </c>
       <c r="Q4" s="47" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1">
       <c r="A5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -18959,16 +18992,16 @@
         <v>43550</v>
       </c>
       <c r="D5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E5" t="s">
         <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5"/>
@@ -18994,12 +19027,12 @@
         <v>1</v>
       </c>
       <c r="Q5" s="47" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1">
       <c r="A6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -19015,10 +19048,10 @@
         <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6"/>
@@ -19042,12 +19075,12 @@
         <v>1</v>
       </c>
       <c r="Q6" s="47" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1">
       <c r="A7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -19056,16 +19089,16 @@
         <v>43552</v>
       </c>
       <c r="D7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E7" t="s">
         <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7"/>
@@ -19091,12 +19124,12 @@
         <v>1</v>
       </c>
       <c r="Q7" s="47" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1">
       <c r="A8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -19112,10 +19145,10 @@
         <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8"/>
@@ -19142,7 +19175,7 @@
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1">
       <c r="A9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -19151,16 +19184,16 @@
         <v>43554</v>
       </c>
       <c r="D9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E9" t="s">
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9"/>
@@ -19186,12 +19219,12 @@
         <v>1</v>
       </c>
       <c r="Q9" s="49" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1">
       <c r="A10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -19207,7 +19240,7 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="38">
@@ -19234,12 +19267,12 @@
         <v>1</v>
       </c>
       <c r="Q10" s="49" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1">
       <c r="A11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -19248,13 +19281,13 @@
         <v>43556</v>
       </c>
       <c r="D11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E11" t="s">
         <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="38">
@@ -19262,7 +19295,7 @@
       </c>
       <c r="I11"/>
       <c r="J11" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K11" t="s">
         <v>60</v>
@@ -19283,12 +19316,12 @@
         <v>1</v>
       </c>
       <c r="Q11" s="49" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1">
       <c r="A12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -19304,7 +19337,7 @@
         <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G12"/>
       <c r="H12" s="38">
@@ -19331,12 +19364,12 @@
         <v>1</v>
       </c>
       <c r="Q12" s="49" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1">
       <c r="A13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -19345,13 +19378,13 @@
         <v>43558</v>
       </c>
       <c r="D13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E13" t="s">
         <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G13"/>
       <c r="H13" s="38">
@@ -19359,7 +19392,7 @@
       </c>
       <c r="I13"/>
       <c r="J13" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K13" t="s">
         <v>60</v>
@@ -19380,12 +19413,12 @@
         <v>1</v>
       </c>
       <c r="Q13" s="49" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1">
       <c r="A14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -19401,7 +19434,7 @@
         <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G14"/>
       <c r="H14" s="38">
@@ -19428,12 +19461,12 @@
         <v>1</v>
       </c>
       <c r="Q14" s="49" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1">
       <c r="A15" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -19442,13 +19475,13 @@
         <v>43560</v>
       </c>
       <c r="D15" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="38">
@@ -19456,7 +19489,7 @@
       </c>
       <c r="I15"/>
       <c r="J15" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K15" t="s">
         <v>60</v>
@@ -19477,12 +19510,12 @@
         <v>1</v>
       </c>
       <c r="Q15" s="49" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1">
       <c r="A16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -19498,7 +19531,7 @@
         <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G16"/>
       <c r="H16" s="38">
@@ -19525,12 +19558,12 @@
         <v>1</v>
       </c>
       <c r="Q16" s="49" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1">
       <c r="A17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -19539,13 +19572,13 @@
         <v>43562</v>
       </c>
       <c r="D17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E17" t="s">
         <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G17"/>
       <c r="H17" s="38">
@@ -19553,7 +19586,7 @@
       </c>
       <c r="I17"/>
       <c r="J17" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K17" t="s">
         <v>60</v>
@@ -19574,12 +19607,12 @@
         <v>1</v>
       </c>
       <c r="Q17" s="49" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1">
       <c r="A18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -19595,10 +19628,10 @@
         <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G18" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H18" s="38"/>
       <c r="I18"/>
@@ -19622,12 +19655,12 @@
         <v>1</v>
       </c>
       <c r="Q18" s="49" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1">
       <c r="A19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -19636,16 +19669,16 @@
         <v>43564</v>
       </c>
       <c r="D19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E19" t="s">
         <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19"/>
@@ -19671,12 +19704,12 @@
         <v>1</v>
       </c>
       <c r="Q19" s="49" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1">
       <c r="A20" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -19692,10 +19725,10 @@
         <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G20" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20"/>
@@ -19719,12 +19752,12 @@
         <v>1</v>
       </c>
       <c r="Q20" s="49" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1">
       <c r="A21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -19733,16 +19766,16 @@
         <v>43566</v>
       </c>
       <c r="D21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E21" t="s">
         <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21"/>
@@ -19768,12 +19801,12 @@
         <v>1</v>
       </c>
       <c r="Q21" s="49" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1">
       <c r="A22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -19789,10 +19822,10 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H22" s="38"/>
       <c r="I22"/>
@@ -19816,12 +19849,12 @@
         <v>1</v>
       </c>
       <c r="Q22" s="49" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1">
       <c r="A23" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -19830,16 +19863,16 @@
         <v>43568</v>
       </c>
       <c r="D23" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E23" t="s">
         <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H23" s="38"/>
       <c r="I23"/>
@@ -19868,7 +19901,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -19884,10 +19917,10 @@
         <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G24" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K24" t="s">
         <v>60</v>
@@ -19908,12 +19941,12 @@
         <v>1</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -19922,16 +19955,16 @@
         <v>43570</v>
       </c>
       <c r="D25" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E25" t="s">
         <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G25" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J25" s="22" t="s">
         <v>59</v>
@@ -19957,7 +19990,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -19973,7 +20006,7 @@
         <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H26" s="38">
         <v>4748362</v>
@@ -19999,7 +20032,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -20008,19 +20041,19 @@
         <v>43572</v>
       </c>
       <c r="D27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E27" t="s">
         <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H27" s="38">
         <v>4748362</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K27" t="s">
         <v>60</v>
@@ -20043,7 +20076,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -20059,7 +20092,7 @@
         <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H28" s="38">
         <v>4748379</v>
@@ -20085,7 +20118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -20094,19 +20127,19 @@
         <v>43574</v>
       </c>
       <c r="D29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E29" t="s">
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H29" s="38">
         <v>4748385</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K29" t="s">
         <v>60</v>
@@ -20129,7 +20162,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -20145,7 +20178,7 @@
         <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H30" s="38">
         <v>4748362</v>
@@ -20171,7 +20204,7 @@
     </row>
     <row r="31" spans="1:17" s="15" customFormat="1">
       <c r="A31" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -20180,13 +20213,13 @@
         <v>43576</v>
       </c>
       <c r="D31" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E31" t="s">
         <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G31"/>
       <c r="H31" s="38">
@@ -20194,7 +20227,7 @@
       </c>
       <c r="I31"/>
       <c r="J31" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K31" t="s">
         <v>60</v>
@@ -20218,7 +20251,7 @@
     </row>
     <row r="32" spans="1:17" s="15" customFormat="1">
       <c r="A32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -20234,7 +20267,7 @@
         <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G32"/>
       <c r="H32" s="38">
@@ -20264,7 +20297,7 @@
     </row>
     <row r="33" spans="1:17" s="15" customFormat="1">
       <c r="A33" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -20273,13 +20306,13 @@
         <v>43578</v>
       </c>
       <c r="D33" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E33" t="s">
         <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G33"/>
       <c r="H33" s="38">
@@ -20287,7 +20320,7 @@
       </c>
       <c r="I33"/>
       <c r="J33" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K33" t="s">
         <v>60</v>
@@ -20310,7 +20343,7 @@
     </row>
     <row r="34" spans="1:17" s="15" customFormat="1">
       <c r="A34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -20326,10 +20359,10 @@
         <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G34" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H34" s="38"/>
       <c r="I34"/>
@@ -20356,7 +20389,7 @@
     </row>
     <row r="35" spans="1:17" s="15" customFormat="1">
       <c r="A35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -20365,16 +20398,16 @@
         <v>43580</v>
       </c>
       <c r="D35" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E35" t="s">
         <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H35" s="38"/>
       <c r="I35"/>
@@ -20403,7 +20436,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -20419,10 +20452,10 @@
         <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K36" t="s">
         <v>60</v>
@@ -20445,7 +20478,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -20454,16 +20487,16 @@
         <v>43582</v>
       </c>
       <c r="D37" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E37" t="s">
         <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J37" s="22" t="s">
         <v>59</v>
@@ -20489,7 +20522,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -20505,10 +20538,10 @@
         <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K38" t="s">
         <v>60</v>
@@ -20531,7 +20564,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -20540,16 +20573,16 @@
         <v>43584</v>
       </c>
       <c r="D39" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E39" t="s">
         <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G39" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J39" s="22" t="s">
         <v>59</v>
@@ -20575,7 +20608,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -20591,10 +20624,10 @@
         <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G40" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K40" t="s">
         <v>60</v>
@@ -20617,7 +20650,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -20626,16 +20659,16 @@
         <v>43586</v>
       </c>
       <c r="D41" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E41" t="s">
         <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G41" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J41" s="22" t="s">
         <v>59</v>
@@ -21049,8 +21082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -21070,7 +21103,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>36</v>
@@ -21088,186 +21121,186 @@
         <v>46</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E2">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G2" s="31">
         <v>43546</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E3">
         <v>87.6</v>
       </c>
       <c r="F3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G3" s="31">
         <f>G2+1</f>
         <v>43547</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E4">
         <v>87.4</v>
       </c>
       <c r="F4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G4" s="31">
         <f t="shared" ref="G4:G5" si="0">G3+1</f>
         <v>43548</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E5">
         <v>86.9</v>
       </c>
       <c r="F5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G5" s="31">
         <f t="shared" si="0"/>
         <v>43549</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E6">
         <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G6" s="31">
         <v>43546</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E7">
         <v>29.1</v>
       </c>
       <c r="F7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G7" s="31">
         <v>43546</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>853</v>
+      </c>
+      <c r="D8" t="s">
         <v>854</v>
-      </c>
-      <c r="D8" t="s">
-        <v>855</v>
       </c>
       <c r="E8">
         <v>36.6</v>
       </c>
       <c r="F8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G8" s="31">
         <v>43546</v>
@@ -21276,156 +21309,156 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>853</v>
+      </c>
+      <c r="D9" t="s">
         <v>854</v>
-      </c>
-      <c r="D9" t="s">
-        <v>855</v>
       </c>
       <c r="E9">
         <v>36.799999999999997</v>
       </c>
       <c r="F9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G9" s="31">
         <f>G8+1</f>
         <v>43547</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>853</v>
+      </c>
+      <c r="D10" t="s">
         <v>854</v>
-      </c>
-      <c r="D10" t="s">
-        <v>855</v>
       </c>
       <c r="E10">
         <v>35.799999999999997</v>
       </c>
       <c r="F10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G10" s="31">
         <f t="shared" ref="G10:G12" si="1">G9+1</f>
         <v>43548</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>853</v>
+      </c>
+      <c r="D11" t="s">
         <v>854</v>
-      </c>
-      <c r="D11" t="s">
-        <v>855</v>
       </c>
       <c r="E11">
         <v>35.6</v>
       </c>
       <c r="F11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G11" s="31">
         <f t="shared" si="1"/>
         <v>43549</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>853</v>
+      </c>
+      <c r="D12" t="s">
         <v>854</v>
-      </c>
-      <c r="D12" t="s">
-        <v>855</v>
       </c>
       <c r="E12">
         <v>35.799999999999997</v>
       </c>
       <c r="F12" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G12" s="31">
         <f t="shared" si="1"/>
         <v>43550</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E13">
         <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G13" s="31">
         <v>43546</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D14" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E14">
         <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G14" s="31">
         <f>G13+1</f>
@@ -21435,22 +21468,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D15" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E15">
         <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G15" s="31">
         <f t="shared" ref="G15:G17" si="2">G14+1</f>
@@ -21460,22 +21493,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D16" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E16">
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G16" s="31">
         <f t="shared" si="2"/>
@@ -21485,22 +21518,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E17">
         <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G17" s="31">
         <f t="shared" si="2"/>
@@ -21509,48 +21542,48 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E18">
         <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G18" s="31">
         <v>43546</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E19">
         <v>140</v>
       </c>
       <c r="F19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G19" s="31">
         <f>G18+1</f>
@@ -21559,22 +21592,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E20">
         <v>140</v>
       </c>
       <c r="F20" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G20" s="31">
         <f t="shared" ref="G20:G22" si="3">G19+1</f>
@@ -21583,22 +21616,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D21" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E21">
         <v>130</v>
       </c>
       <c r="F21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G21" s="31">
         <f t="shared" si="3"/>
@@ -21607,22 +21640,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E22">
         <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G22" s="31">
         <f t="shared" si="3"/>
@@ -21631,22 +21664,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D23" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E23">
         <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G23" s="31">
         <v>43546</v>
@@ -21654,22 +21687,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D24" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E24">
         <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G24" s="31">
         <f>G23+1</f>
@@ -21678,22 +21711,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D25" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E25">
         <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G25" s="31">
         <f t="shared" ref="G25:G27" si="4">G24+1</f>
@@ -21702,22 +21735,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D26" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E26">
         <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G26" s="31">
         <f t="shared" si="4"/>
@@ -21726,22 +21759,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D27" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E27">
         <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G27" s="31">
         <f t="shared" si="4"/>
@@ -21825,62 +21858,272 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD528928-EECA-4508-A8BC-C8D6147BAB58}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D2" t="s">
+        <v>701</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D3" t="s">
+        <v>702</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D5" t="s">
+        <v>701</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>761</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>761</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>761</v>
+      </c>
+      <c r="B8">
+        <v>1.2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D8" t="s">
+        <v>701</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>761</v>
+      </c>
+      <c r="B9">
+        <v>1.2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D9" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>764</v>
-      </c>
-      <c r="B3">
+      <c r="E9" s="47" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>761</v>
+      </c>
+      <c r="B10">
+        <v>1.2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E10" s="47"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>761</v>
+      </c>
+      <c r="D11" t="s">
+        <v>701</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>761</v>
+      </c>
+      <c r="D12" t="s">
+        <v>702</v>
+      </c>
+      <c r="E12" s="47"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>761</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D3" t="s">
-        <v>703</v>
+      <c r="D13" t="s">
+        <v>701</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>761</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>761</v>
+      </c>
+      <c r="B15">
+        <v>1.2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>701</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>761</v>
+      </c>
+      <c r="B16">
+        <v>1.2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>702</v>
+      </c>
+      <c r="E16" s="47"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>762</v>
+      </c>
+      <c r="B17">
+        <v>1.2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" s="27" t="s">
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7EC5DBBA-8FCA-4F04-8CEB-29B754A910DF}">
+          <x14:formula1>
+            <xm:f>Codes!$L$4:$L$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D11 D17 D19:D239 D13:D15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -22126,27 +22369,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">TMFEV-111023110-895</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">
-      <Url>https://tmfev.sharepoint.com/sites/tmf/mi-i/_layouts/15/DocIdRedir.aspx?ID=TMFEV-111023110-895</Url>
-      <Description>TMFEV-111023110-895</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -22196,6 +22418,27 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">TMFEV-111023110-895</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">
+      <Url>https://tmfev.sharepoint.com/sites/tmf/mi-i/_layouts/15/DocIdRedir.aspx?ID=TMFEV-111023110-895</Url>
+      <Description>TMFEV-111023110-895</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E73BDE1-9CCD-4DA3-98C1-B2700F42483C}">
   <ds:schemaRefs>
@@ -22217,11 +22460,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B89C2DA-DD1E-4298-9623-BC864CA91962}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17381246-8561-41AA-90B8-1B77E21DFFC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="15b42a90-06dd-4669-ae82-892e5974bb2f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22235,9 +22476,11 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17381246-8561-41AA-90B8-1B77E21DFFC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B89C2DA-DD1E-4298-9623-BC864CA91962}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="15b42a90-06dd-4669-ae82-892e5974bb2f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/resources/excel/FHIR_Testdatengenerator_Vorlage.xlsx
+++ b/src/main/resources/excel/FHIR_Testdatengenerator_Vorlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\D\Eigene Projekte\smith\TestDataGenerator_MIIGitHub\input - Vorlagen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\D\Eigene Projekte\smith\TestDataGenerator_MIIGitHub\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6557FD7-EF83-4934-857A-DB1BD039542F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA20A9FA-45FF-457C-83FA-59A29AC583E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">DocumentReference!$A$1:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Laborbefund!$A$1:$G$682</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Medikation!$A$1:$P$1079</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Medikation!$D$1:$D$897</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1058">
   <si>
     <t>Patient-ID</t>
   </si>
@@ -2368,12 +2368,6 @@
     <t>Medikationstyp</t>
   </si>
   <si>
-    <t>Verordnung</t>
-  </si>
-  <si>
-    <t>Gabe</t>
-  </si>
-  <si>
     <t>Projekt_XY_Patient_00001</t>
   </si>
   <si>
@@ -3260,6 +3254,15 @@
   </si>
   <si>
     <t>Beim unteren Patienten ist ein absoluter Pfad angegeben, bei allen anderen ein relativer oder keiner.</t>
+  </si>
+  <si>
+    <t>Verordnung (MedicationRequest)</t>
+  </si>
+  <si>
+    <t>Gabe (MedicationAdministration)</t>
+  </si>
+  <si>
+    <t>Angabe (MedicationStatement)</t>
   </si>
 </sst>
 </file>
@@ -3955,12 +3958,12 @@
         <v>708</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B2" t="s">
         <v>734</v>
@@ -3983,12 +3986,12 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="47" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B3" t="s">
         <v>735</v>
@@ -4014,12 +4017,12 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="47" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B4" t="s">
         <v>736</v>
@@ -4045,12 +4048,12 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="47" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B5" t="s">
         <v>737</v>
@@ -4078,7 +4081,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B6" t="s">
         <v>738</v>
@@ -4104,12 +4107,12 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="47" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B7" t="s">
         <v>739</v>
@@ -4135,12 +4138,12 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="47" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B8" t="s">
         <v>740</v>
@@ -4166,12 +4169,12 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="47" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B9" t="s">
         <v>741</v>
@@ -4197,12 +4200,12 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="47" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B10" t="s">
         <v>742</v>
@@ -4230,7 +4233,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B11" t="s">
         <v>743</v>
@@ -4256,7 +4259,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="47" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4266,7 +4269,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="47" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4276,7 +4279,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="47" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4286,7 +4289,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="47" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4296,7 +4299,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="47" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4306,7 +4309,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="47" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="17" spans="9:14">
@@ -4323,7 +4326,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="47" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="19" spans="9:14">
@@ -4333,7 +4336,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="47" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="20" spans="9:14">
@@ -4343,7 +4346,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="47" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="21" spans="9:14">
@@ -4353,7 +4356,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="47" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="22" spans="9:14">
@@ -4363,7 +4366,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="47" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="23" spans="9:14">
@@ -4373,7 +4376,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="47" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="24" spans="9:14">
@@ -4383,7 +4386,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="47" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="25" spans="9:14">
@@ -4400,7 +4403,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="9:14">
@@ -4425,7 +4428,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="47" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="30" spans="9:14">
@@ -4435,7 +4438,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="46" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="31" spans="9:14">
@@ -4445,7 +4448,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="46" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="32" spans="9:14">
@@ -7774,7 +7777,7 @@
   <dimension ref="A2:S252"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -7786,7 +7789,7 @@
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="11" width="25.7109375" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.42578125" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7795,7 +7798,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F2" s="54"/>
       <c r="G2" s="54"/>
@@ -7835,13 +7838,13 @@
         <v>108</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>758</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7882,10 +7885,10 @@
         <v>701</v>
       </c>
       <c r="M4" t="s">
-        <v>759</v>
+        <v>1055</v>
       </c>
       <c r="N4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7926,10 +7929,10 @@
         <v>702</v>
       </c>
       <c r="M5" t="s">
-        <v>760</v>
+        <v>1056</v>
       </c>
       <c r="N5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7963,8 +7966,11 @@
       <c r="K6" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="M6" t="s">
+        <v>1057</v>
+      </c>
       <c r="N6" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -7999,7 +8005,7 @@
         <v>137</v>
       </c>
       <c r="N7" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="S7" s="2"/>
     </row>
@@ -8035,7 +8041,7 @@
         <v>145</v>
       </c>
       <c r="N8" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="S8" s="2"/>
     </row>
@@ -8068,7 +8074,7 @@
         <v>154</v>
       </c>
       <c r="N9" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -8097,7 +8103,7 @@
         <v>160</v>
       </c>
       <c r="N10" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -8126,7 +8132,7 @@
         <v>167</v>
       </c>
       <c r="N11" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -8149,7 +8155,7 @@
         <v>172</v>
       </c>
       <c r="N12" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -8172,7 +8178,7 @@
         <v>177</v>
       </c>
       <c r="N13" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -8192,7 +8198,7 @@
         <v>182</v>
       </c>
       <c r="N14" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -8212,7 +8218,7 @@
         <v>187</v>
       </c>
       <c r="N15" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -10377,42 +10383,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="50" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="50" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="50" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="50" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="50" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="50" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="50" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="50" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -10420,87 +10426,87 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="50" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="50" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="50" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="50" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="50" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="50" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="50" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="50" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="50" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="50" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="50" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="50" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="50" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="50" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="50" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="50" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="50" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -10511,27 +10517,27 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="50" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="50" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="50" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="50" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="52" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -10539,27 +10545,27 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="50" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="50" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="50" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="50" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="50" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -10567,492 +10573,492 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="50" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="50" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="50" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="50" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="50" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="53" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="51" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="51" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="51" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="51" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="51" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="53" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="51" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="51" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="51" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="53" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="51" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="51" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="51" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="51" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="51" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="51" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="51" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="51" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="51" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="51" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="53" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="51" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="51" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="51" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="51" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="51" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="51" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="51" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="51" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="51" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="51" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="51" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="51" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="53" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="51" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="51" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="51" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="51" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="51" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="51" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="51" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="51" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="51" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="51" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="53" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="51" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="51" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="51" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="51" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="51" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="51" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="51" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="51" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="51" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="51" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="51" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="51" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="53" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="51" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="51" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="51" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="51" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="51" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="51" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="51" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="51" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="51" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="53" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="51" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="51" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="51" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="51" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="51" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="51" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="51" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="51" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="53" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>
@@ -11096,12 +11102,12 @@
         <v>13</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11116,12 +11122,12 @@
         <v>109</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -11136,12 +11142,12 @@
         <v>109</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -11158,7 +11164,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -11173,12 +11179,12 @@
         <v>109</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -11193,12 +11199,12 @@
         <v>109</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -11213,12 +11219,12 @@
         <v>109</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -11235,7 +11241,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -11250,12 +11256,12 @@
         <v>109</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -11270,12 +11276,12 @@
         <v>109</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -11290,12 +11296,12 @@
         <v>109</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -11312,7 +11318,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -11329,7 +11335,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -11346,7 +11352,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -11363,7 +11369,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -11380,7 +11386,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -11397,7 +11403,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -11414,7 +11420,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -11429,12 +11435,12 @@
         <v>109</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -11451,7 +11457,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -11868,12 +11874,12 @@
         <v>15</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11888,12 +11894,12 @@
         <v>203</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -11908,12 +11914,12 @@
         <v>208</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -11928,12 +11934,12 @@
         <v>203</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -11948,12 +11954,12 @@
         <v>208</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -11968,12 +11974,12 @@
         <v>203</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -11991,7 +11997,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -12011,7 +12017,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -12031,7 +12037,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -12048,7 +12054,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -12065,7 +12071,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -12082,7 +12088,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -12099,7 +12105,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -12116,7 +12122,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -12133,7 +12139,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -12150,7 +12156,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -12168,7 +12174,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -12183,12 +12189,12 @@
         <v>203</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -12206,7 +12212,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -12224,7 +12230,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -12448,157 +12454,157 @@
         <v>35</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E2">
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G2" s="31">
         <v>43547</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E3">
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G3" s="31">
         <v>43548</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E4">
         <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G4" s="31">
         <v>43549</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E5">
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G5" s="31">
         <v>43550</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E6">
         <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G6" s="31">
         <v>43551</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D7" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E7">
         <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G7" s="31">
         <v>43552</v>
@@ -12607,167 +12613,167 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D8" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E8">
         <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G8" s="31">
         <v>43553</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D9" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E9">
         <v>730</v>
       </c>
       <c r="F9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G9" s="31">
         <v>43554</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D10" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E10">
         <v>550</v>
       </c>
       <c r="F10" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G10" s="31">
         <v>43555</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E11">
         <v>540</v>
       </c>
       <c r="F11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G11" s="31">
         <v>43556</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D12" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E12">
         <v>554</v>
       </c>
       <c r="F12" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G12" s="31">
         <v>43557</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E13">
         <v>0.34</v>
       </c>
       <c r="F13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G13" s="31">
         <v>43558</v>
@@ -12775,22 +12781,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D14" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E14">
         <v>0.02</v>
       </c>
       <c r="F14" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G14" s="31">
         <v>43559</v>
@@ -12798,22 +12804,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D15" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E15">
         <v>0.54</v>
       </c>
       <c r="F15" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G15" s="31">
         <v>43560</v>
@@ -12821,48 +12827,48 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E16">
         <v>1.71</v>
       </c>
       <c r="F16" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G16" s="31">
         <v>43561</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D17" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E17">
         <v>1.18</v>
       </c>
       <c r="F17" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G17" s="31">
         <v>43562</v>
@@ -12870,22 +12876,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E18" s="11">
         <v>112</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G18" s="31">
         <v>43563</v>
@@ -12893,22 +12899,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E19" s="11">
         <v>130</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G19" s="31">
         <v>43564</v>
@@ -12916,22 +12922,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E20" s="11">
         <v>107</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G20" s="31">
         <v>43565</v>
@@ -12939,22 +12945,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E21" s="11">
         <v>98</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G21" s="31">
         <v>43566</v>
@@ -12962,22 +12968,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D22" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E22" s="13">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G22" s="31">
         <v>43567</v>
@@ -12985,22 +12991,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D23" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E23" s="13">
         <v>0.9</v>
       </c>
       <c r="F23" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G23" s="31">
         <v>43568</v>
@@ -13008,22 +13014,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D24" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E24" s="13">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G24" s="31">
         <v>43569</v>
@@ -13031,22 +13037,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D25" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E25" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="F25" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G25" s="31">
         <v>43570</v>
@@ -13054,22 +13060,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D26" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E26">
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G26" s="31">
         <v>43571</v>
@@ -13077,22 +13083,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E27">
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G27" s="31">
         <v>43572</v>
@@ -13100,22 +13106,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D28" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E28">
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G28" s="31">
         <v>43573</v>
@@ -13123,22 +13129,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D29" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E29">
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G29" s="31">
         <v>43574</v>
@@ -13146,22 +13152,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D30" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E30">
         <v>772</v>
       </c>
       <c r="F30" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G30" s="31">
         <v>43575</v>
@@ -13169,22 +13175,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D31" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E31">
         <v>140</v>
       </c>
       <c r="F31" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G31" s="31">
         <v>43576</v>
@@ -13192,22 +13198,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D32" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E32">
         <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G32" s="31">
         <v>43577</v>
@@ -13215,22 +13221,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D33" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E33">
         <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G33" s="31">
         <v>43578</v>
@@ -13238,22 +13244,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D34" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E34">
         <v>3.5</v>
       </c>
       <c r="F34" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G34" s="31">
         <v>43579</v>
@@ -13261,22 +13267,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D35" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E35">
         <v>4.0999999999999996</v>
       </c>
       <c r="F35" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G35" s="31">
         <v>43580</v>
@@ -13284,22 +13290,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D36" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E36">
         <v>4.2</v>
       </c>
       <c r="F36" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G36" s="31">
         <v>43581</v>
@@ -13307,22 +13313,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D37" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E37">
         <v>4.0999999999999996</v>
       </c>
       <c r="F37" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G37" s="31">
         <v>43582</v>
@@ -13330,22 +13336,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D38" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E38">
         <v>4.3</v>
       </c>
       <c r="F38" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G38" s="31">
         <v>43583</v>
@@ -13353,22 +13359,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D39" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E39">
         <v>4.8</v>
       </c>
       <c r="F39" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G39" s="31">
         <v>43584</v>
@@ -13376,22 +13382,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D40" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E40">
         <v>4.9000000000000004</v>
       </c>
       <c r="F40" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G40" s="31">
         <v>43585</v>
@@ -13399,22 +13405,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D41" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E41">
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G41" s="31">
         <v>43586</v>
@@ -16825,7 +16831,7 @@
         <v>39</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -16833,7 +16839,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -16851,14 +16857,14 @@
         <v>700</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H2" s="19"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -16876,14 +16882,14 @@
         <v>40</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H3" s="19"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1">
       <c r="A4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -16901,13 +16907,13 @@
         <v>700</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1">
       <c r="A5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -16925,13 +16931,13 @@
         <v>700</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1">
       <c r="A6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -16949,13 +16955,13 @@
         <v>40</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1">
       <c r="A7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -16973,13 +16979,13 @@
         <v>700</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1">
       <c r="A8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -17002,7 +17008,7 @@
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1">
       <c r="A9" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -17020,14 +17026,14 @@
         <v>40</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1">
       <c r="A10" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -17045,7 +17051,7 @@
         <v>700</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -17053,7 +17059,7 @@
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1">
       <c r="A11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -17071,7 +17077,7 @@
         <v>700</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -17079,7 +17085,7 @@
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1">
       <c r="A12" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -17097,7 +17103,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -17105,7 +17111,7 @@
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1">
       <c r="A13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -17129,7 +17135,7 @@
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1">
       <c r="A14" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -17147,14 +17153,14 @@
         <v>700</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1">
       <c r="A15" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -17177,7 +17183,7 @@
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1">
       <c r="A16" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -17200,7 +17206,7 @@
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1">
       <c r="A17" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -17223,7 +17229,7 @@
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1">
       <c r="A18" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -17245,7 +17251,7 @@
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1">
       <c r="A19" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -17268,7 +17274,7 @@
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1">
       <c r="A20" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -17292,7 +17298,7 @@
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1">
       <c r="A21" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -17316,7 +17322,7 @@
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1">
       <c r="A22" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -17340,7 +17346,7 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1">
       <c r="A23" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -17364,7 +17370,7 @@
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1">
       <c r="A24" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -17388,7 +17394,7 @@
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1">
       <c r="A25" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -17412,7 +17418,7 @@
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1">
       <c r="A26" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -17436,7 +17442,7 @@
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1">
       <c r="A27" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -17460,7 +17466,7 @@
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1">
       <c r="A28" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -17484,7 +17490,7 @@
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1">
       <c r="A29" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -17508,7 +17514,7 @@
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1">
       <c r="A30" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -17532,7 +17538,7 @@
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1">
       <c r="A31" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -18010,147 +18016,147 @@
         <v>38</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E2" s="31">
         <v>43547</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E3" s="31">
         <v>43548</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E4" s="31">
         <v>43549</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E5" s="31">
         <v>43550</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E6" s="31">
         <v>43551</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E7" s="31">
         <v>43552</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D8" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E8" s="31">
         <v>43553</v>
@@ -18160,79 +18166,79 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D9" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E9" s="31">
         <v>43554</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D10" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E10" s="31">
         <v>43555</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E11" s="31">
         <v>43556</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D12" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E12" s="31">
         <v>43557</v>
@@ -18242,16 +18248,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D13" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E13" s="31">
         <v>43558</v>
@@ -18260,37 +18266,37 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D14" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E14" s="31">
         <v>43559</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" s="19" customFormat="1">
       <c r="A15" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D15" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E15" s="31">
         <v>43560</v>
@@ -18298,16 +18304,16 @@
     </row>
     <row r="16" spans="1:8" s="19" customFormat="1">
       <c r="A16" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D16" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E16" s="31">
         <v>43561</v>
@@ -18315,16 +18321,16 @@
     </row>
     <row r="17" spans="1:5" s="19" customFormat="1">
       <c r="A17" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D17" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E17" s="31">
         <v>43562</v>
@@ -18332,16 +18338,16 @@
     </row>
     <row r="18" spans="1:5" s="19" customFormat="1">
       <c r="A18" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D18" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E18" s="31">
         <v>43563</v>
@@ -18349,16 +18355,16 @@
     </row>
     <row r="19" spans="1:5" s="19" customFormat="1">
       <c r="A19" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D19" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E19" s="31">
         <v>43564</v>
@@ -18366,16 +18372,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D20" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E20" s="31">
         <v>43565</v>
@@ -18383,16 +18389,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E21" s="31">
         <v>43566</v>
@@ -18400,16 +18406,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D22" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E22" s="31">
         <v>43567</v>
@@ -18417,16 +18423,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D23" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E23" s="31">
         <v>43568</v>
@@ -18434,16 +18440,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D24" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E24" s="31">
         <v>43569</v>
@@ -18451,16 +18457,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D25" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E25" s="31">
         <v>43570</v>
@@ -18468,16 +18474,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D26" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E26" s="31">
         <v>43571</v>
@@ -18485,16 +18491,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D27" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E27" s="31">
         <v>43572</v>
@@ -18502,16 +18508,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D28" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E28" s="31">
         <v>43573</v>
@@ -18519,16 +18525,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D29" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E29" s="31">
         <v>43574</v>
@@ -18536,16 +18542,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E30" s="31">
         <v>43575</v>
@@ -18553,16 +18559,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D31" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E31" s="31">
         <v>43576</v>
@@ -18570,16 +18576,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D32" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E32" s="31">
         <v>43577</v>
@@ -18587,16 +18593,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D33" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E33" s="31">
         <v>43578</v>
@@ -18604,16 +18610,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D34" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E34" s="31">
         <v>43579</v>
@@ -18621,16 +18627,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D35" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E35" s="31">
         <v>43580</v>
@@ -18638,16 +18644,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D36" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E36" s="31">
         <v>43581</v>
@@ -18655,16 +18661,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D37" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E37" s="31">
         <v>43582</v>
@@ -18672,16 +18678,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D38" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E38" s="31">
         <v>43583</v>
@@ -18689,16 +18695,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D39" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E39" s="31">
         <v>43584</v>
@@ -18706,16 +18712,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D40" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E40" s="31">
         <v>43585</v>
@@ -18723,16 +18729,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D41" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E41" s="31">
         <v>43586</v>
@@ -18756,9 +18762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q897"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -18766,7 +18772,7 @@
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -18833,12 +18839,12 @@
         <v>54</v>
       </c>
       <c r="Q1" s="47" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1">
       <c r="A2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -18847,8 +18853,8 @@
         <v>43547</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(OR(AND(L2="",M2&lt;&gt;""),AND(L2&lt;&gt;"",M2=""),AND(L2&lt;&gt;"",M2&lt;&gt;"",L2=M2)),"Gabe","Verordnung")</f>
-        <v>Verordnung</v>
+        <f>IF(OR(AND(L2="",M2&lt;&gt;""),AND(L2&lt;&gt;"",M2=""),AND(L2&lt;&gt;"",M2&lt;&gt;"",L2=M2)),"Gabe (MedicationAdministration)","Verordnung (MedicationRequest)")</f>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -18881,12 +18887,12 @@
         <v>1</v>
       </c>
       <c r="Q2" s="47" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -18894,8 +18900,9 @@
       <c r="C3" s="31">
         <v>43548</v>
       </c>
-      <c r="D3" t="s">
-        <v>760</v>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D41" si="0">IF(OR(AND(L3="",M3&lt;&gt;""),AND(L3&lt;&gt;"",M3=""),AND(L3&lt;&gt;"",M3&lt;&gt;"",L3=M3)),"Gabe (MedicationAdministration)","Verordnung (MedicationRequest)")</f>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E3" t="s">
         <v>58</v>
@@ -18930,12 +18937,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1">
       <c r="A4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -18944,8 +18951,8 @@
         <v>43549</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D40" si="0">IF(OR(AND(L4="",M4&lt;&gt;""),AND(L4&lt;&gt;"",M4=""),AND(L4&lt;&gt;"",M4&lt;&gt;"",L4=M4)),"Gabe","Verordnung")</f>
-        <v>Verordnung</v>
+        <f t="shared" si="0"/>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
@@ -18978,12 +18985,12 @@
         <v>1</v>
       </c>
       <c r="Q4" s="47" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1">
       <c r="A5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -18991,8 +18998,9 @@
       <c r="C5" s="31">
         <v>43550</v>
       </c>
-      <c r="D5" t="s">
-        <v>760</v>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E5" t="s">
         <v>58</v>
@@ -19027,12 +19035,12 @@
         <v>1</v>
       </c>
       <c r="Q5" s="47" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1">
       <c r="A6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -19042,7 +19050,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -19075,12 +19083,12 @@
         <v>1</v>
       </c>
       <c r="Q6" s="47" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1">
       <c r="A7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -19088,8 +19096,9 @@
       <c r="C7" s="31">
         <v>43552</v>
       </c>
-      <c r="D7" t="s">
-        <v>760</v>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E7" t="s">
         <v>58</v>
@@ -19124,12 +19133,12 @@
         <v>1</v>
       </c>
       <c r="Q7" s="47" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1">
       <c r="A8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -19139,7 +19148,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
@@ -19175,7 +19184,7 @@
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1">
       <c r="A9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -19183,8 +19192,9 @@
       <c r="C9" s="31">
         <v>43554</v>
       </c>
-      <c r="D9" t="s">
-        <v>760</v>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E9" t="s">
         <v>58</v>
@@ -19219,12 +19229,12 @@
         <v>1</v>
       </c>
       <c r="Q9" s="49" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1">
       <c r="A10" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -19234,7 +19244,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E10" t="s">
         <v>58</v>
@@ -19267,12 +19277,12 @@
         <v>1</v>
       </c>
       <c r="Q10" s="49" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1">
       <c r="A11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -19280,8 +19290,9 @@
       <c r="C11" s="31">
         <v>43556</v>
       </c>
-      <c r="D11" t="s">
-        <v>760</v>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E11" t="s">
         <v>58</v>
@@ -19316,12 +19327,12 @@
         <v>1</v>
       </c>
       <c r="Q11" s="49" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1">
       <c r="A12" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -19331,7 +19342,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E12" t="s">
         <v>58</v>
@@ -19364,12 +19375,12 @@
         <v>1</v>
       </c>
       <c r="Q12" s="49" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1">
       <c r="A13" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -19377,8 +19388,9 @@
       <c r="C13" s="31">
         <v>43558</v>
       </c>
-      <c r="D13" t="s">
-        <v>760</v>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E13" t="s">
         <v>58</v>
@@ -19413,12 +19425,12 @@
         <v>1</v>
       </c>
       <c r="Q13" s="49" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1">
       <c r="A14" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -19428,7 +19440,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E14" t="s">
         <v>58</v>
@@ -19461,12 +19473,12 @@
         <v>1</v>
       </c>
       <c r="Q14" s="49" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1">
       <c r="A15" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -19474,8 +19486,9 @@
       <c r="C15" s="31">
         <v>43560</v>
       </c>
-      <c r="D15" t="s">
-        <v>760</v>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
@@ -19510,12 +19523,12 @@
         <v>1</v>
       </c>
       <c r="Q15" s="49" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1">
       <c r="A16" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -19525,7 +19538,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E16" t="s">
         <v>58</v>
@@ -19558,12 +19571,12 @@
         <v>1</v>
       </c>
       <c r="Q16" s="49" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1">
       <c r="A17" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -19571,8 +19584,9 @@
       <c r="C17" s="31">
         <v>43562</v>
       </c>
-      <c r="D17" t="s">
-        <v>760</v>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E17" t="s">
         <v>58</v>
@@ -19607,12 +19621,12 @@
         <v>1</v>
       </c>
       <c r="Q17" s="49" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1">
       <c r="A18" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -19622,7 +19636,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E18" t="s">
         <v>58</v>
@@ -19655,12 +19669,12 @@
         <v>1</v>
       </c>
       <c r="Q18" s="49" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1">
       <c r="A19" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -19668,8 +19682,9 @@
       <c r="C19" s="31">
         <v>43564</v>
       </c>
-      <c r="D19" t="s">
-        <v>760</v>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E19" t="s">
         <v>58</v>
@@ -19704,12 +19719,12 @@
         <v>1</v>
       </c>
       <c r="Q19" s="49" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1">
       <c r="A20" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -19719,7 +19734,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -19752,12 +19767,12 @@
         <v>1</v>
       </c>
       <c r="Q20" s="49" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1">
       <c r="A21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -19765,8 +19780,9 @@
       <c r="C21" s="31">
         <v>43566</v>
       </c>
-      <c r="D21" t="s">
-        <v>760</v>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E21" t="s">
         <v>58</v>
@@ -19801,12 +19817,12 @@
         <v>1</v>
       </c>
       <c r="Q21" s="49" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1">
       <c r="A22" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -19816,7 +19832,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E22" t="s">
         <v>58</v>
@@ -19849,12 +19865,12 @@
         <v>1</v>
       </c>
       <c r="Q22" s="49" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1">
       <c r="A23" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -19862,8 +19878,9 @@
       <c r="C23" s="31">
         <v>43568</v>
       </c>
-      <c r="D23" t="s">
-        <v>760</v>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E23" t="s">
         <v>58</v>
@@ -19901,7 +19918,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -19911,7 +19928,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E24" t="s">
         <v>58</v>
@@ -19941,12 +19958,12 @@
         <v>1</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -19954,8 +19971,9 @@
       <c r="C25" s="31">
         <v>43570</v>
       </c>
-      <c r="D25" t="s">
-        <v>760</v>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E25" t="s">
         <v>58</v>
@@ -19990,7 +20008,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -20000,7 +20018,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E26" t="s">
         <v>58</v>
@@ -20032,7 +20050,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -20040,8 +20058,9 @@
       <c r="C27" s="31">
         <v>43572</v>
       </c>
-      <c r="D27" t="s">
-        <v>760</v>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E27" t="s">
         <v>58</v>
@@ -20076,7 +20095,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -20086,7 +20105,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
@@ -20118,7 +20137,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -20126,8 +20145,9 @@
       <c r="C29" s="31">
         <v>43574</v>
       </c>
-      <c r="D29" t="s">
-        <v>760</v>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E29" t="s">
         <v>58</v>
@@ -20162,7 +20182,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -20172,7 +20192,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E30" t="s">
         <v>58</v>
@@ -20204,7 +20224,7 @@
     </row>
     <row r="31" spans="1:17" s="15" customFormat="1">
       <c r="A31" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -20212,8 +20232,9 @@
       <c r="C31" s="31">
         <v>43576</v>
       </c>
-      <c r="D31" t="s">
-        <v>760</v>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E31" t="s">
         <v>58</v>
@@ -20251,7 +20272,7 @@
     </row>
     <row r="32" spans="1:17" s="15" customFormat="1">
       <c r="A32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -20261,7 +20282,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E32" t="s">
         <v>58</v>
@@ -20297,7 +20318,7 @@
     </row>
     <row r="33" spans="1:17" s="15" customFormat="1">
       <c r="A33" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -20305,8 +20326,9 @@
       <c r="C33" s="31">
         <v>43578</v>
       </c>
-      <c r="D33" t="s">
-        <v>760</v>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E33" t="s">
         <v>58</v>
@@ -20343,7 +20365,7 @@
     </row>
     <row r="34" spans="1:17" s="15" customFormat="1">
       <c r="A34" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -20353,7 +20375,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E34" t="s">
         <v>58</v>
@@ -20389,7 +20411,7 @@
     </row>
     <row r="35" spans="1:17" s="15" customFormat="1">
       <c r="A35" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -20397,8 +20419,9 @@
       <c r="C35" s="31">
         <v>43580</v>
       </c>
-      <c r="D35" t="s">
-        <v>760</v>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E35" t="s">
         <v>58</v>
@@ -20436,7 +20459,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -20446,7 +20469,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E36" t="s">
         <v>58</v>
@@ -20478,7 +20501,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -20486,8 +20509,9 @@
       <c r="C37" s="31">
         <v>43582</v>
       </c>
-      <c r="D37" t="s">
-        <v>760</v>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E37" t="s">
         <v>58</v>
@@ -20522,7 +20546,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -20532,7 +20556,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E38" t="s">
         <v>58</v>
@@ -20564,7 +20588,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -20572,8 +20596,9 @@
       <c r="C39" s="31">
         <v>43584</v>
       </c>
-      <c r="D39" t="s">
-        <v>760</v>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E39" t="s">
         <v>58</v>
@@ -20608,7 +20633,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -20618,7 +20643,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>Verordnung</v>
+        <v>Verordnung (MedicationRequest)</v>
       </c>
       <c r="E40" t="s">
         <v>58</v>
@@ -20650,7 +20675,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -20658,8 +20683,9 @@
       <c r="C41" s="31">
         <v>43586</v>
       </c>
-      <c r="D41" t="s">
-        <v>760</v>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabe (MedicationAdministration)</v>
       </c>
       <c r="E41" t="s">
         <v>58</v>
@@ -21044,7 +21070,7 @@
       <c r="H897" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1079" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="D1:D897" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" sqref="E1" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
@@ -21060,17 +21086,17 @@
           </x14:formula1>
           <xm:sqref>E526:E1048576 E2:E524</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{729F0BAB-438A-4D8B-880D-BCE0D41D1CDD}">
-          <x14:formula1>
-            <xm:f>Codes!$M$4:$M$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D41</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000002000000}">
           <x14:formula1>
             <xm:f>Codes!$K$4:$K$252</xm:f>
           </x14:formula1>
           <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{22DBDD92-E7BA-4063-88DF-474A57CF2022}">
+          <x14:formula1>
+            <xm:f>Codes!$M$4:$M$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -21121,186 +21147,186 @@
         <v>46</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E2">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G2" s="31">
         <v>43546</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E3">
         <v>87.6</v>
       </c>
       <c r="F3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G3" s="31">
         <f>G2+1</f>
         <v>43547</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E4">
         <v>87.4</v>
       </c>
       <c r="F4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G4" s="31">
         <f t="shared" ref="G4:G5" si="0">G3+1</f>
         <v>43548</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E5">
         <v>86.9</v>
       </c>
       <c r="F5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G5" s="31">
         <f t="shared" si="0"/>
         <v>43549</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E6">
         <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G6" s="31">
         <v>43546</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D7" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E7">
         <v>29.1</v>
       </c>
       <c r="F7" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G7" s="31">
         <v>43546</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D8" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E8">
         <v>36.6</v>
       </c>
       <c r="F8" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G8" s="31">
         <v>43546</v>
@@ -21309,156 +21335,156 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D9" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E9">
         <v>36.799999999999997</v>
       </c>
       <c r="F9" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G9" s="31">
         <f>G8+1</f>
         <v>43547</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D10" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E10">
         <v>35.799999999999997</v>
       </c>
       <c r="F10" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G10" s="31">
         <f t="shared" ref="G10:G12" si="1">G9+1</f>
         <v>43548</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E11">
         <v>35.6</v>
       </c>
       <c r="F11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G11" s="31">
         <f t="shared" si="1"/>
         <v>43549</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D12" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E12">
         <v>35.799999999999997</v>
       </c>
       <c r="F12" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G12" s="31">
         <f t="shared" si="1"/>
         <v>43550</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D13" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E13">
         <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G13" s="31">
         <v>43546</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D14" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E14">
         <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G14" s="31">
         <f>G13+1</f>
@@ -21468,22 +21494,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D15" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E15">
         <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G15" s="31">
         <f t="shared" ref="G15:G17" si="2">G14+1</f>
@@ -21493,22 +21519,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E16">
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G16" s="31">
         <f t="shared" si="2"/>
@@ -21518,22 +21544,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D17" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E17">
         <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G17" s="31">
         <f t="shared" si="2"/>
@@ -21542,48 +21568,48 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D18" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E18">
         <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G18" s="31">
         <v>43546</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D19" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E19">
         <v>140</v>
       </c>
       <c r="F19" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G19" s="31">
         <f>G18+1</f>
@@ -21592,22 +21618,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D20" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E20">
         <v>140</v>
       </c>
       <c r="F20" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G20" s="31">
         <f t="shared" ref="G20:G22" si="3">G19+1</f>
@@ -21616,22 +21642,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D21" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E21">
         <v>130</v>
       </c>
       <c r="F21" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G21" s="31">
         <f t="shared" si="3"/>
@@ -21640,22 +21666,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D22" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E22">
         <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G22" s="31">
         <f t="shared" si="3"/>
@@ -21664,22 +21690,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D23" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E23">
         <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G23" s="31">
         <v>43546</v>
@@ -21687,22 +21713,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D24" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E24">
         <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G24" s="31">
         <f>G23+1</f>
@@ -21711,22 +21737,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D25" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E25">
         <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G25" s="31">
         <f t="shared" ref="G25:G27" si="4">G24+1</f>
@@ -21735,22 +21761,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D26" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E26">
         <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G26" s="31">
         <f t="shared" si="4"/>
@@ -21759,22 +21785,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D27" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E27">
         <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G27" s="31">
         <f t="shared" si="4"/>
@@ -21861,7 +21887,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -21879,158 +21905,158 @@
         <v>757</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D2" t="s">
         <v>701</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D3" t="s">
         <v>702</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C4" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D5" t="s">
         <v>701</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D6" t="s">
         <v>702</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B8">
         <v>1.2</v>
       </c>
       <c r="C8" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D8" t="s">
         <v>701</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B9">
         <v>1.2</v>
       </c>
       <c r="C9" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D9" t="s">
         <v>702</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B10">
         <v>1.2</v>
       </c>
       <c r="C10" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D11" t="s">
         <v>701</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D12" t="s">
         <v>702</v>
@@ -22039,7 +22065,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -22048,12 +22074,12 @@
         <v>701</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -22062,12 +22088,12 @@
         <v>702</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B15">
         <v>1.2</v>
@@ -22076,12 +22102,12 @@
         <v>701</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B16">
         <v>1.2</v>
@@ -22093,21 +22119,21 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B17">
         <v>1.2</v>
       </c>
       <c r="C17" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="E18" s="27" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -22369,6 +22395,27 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">TMFEV-111023110-895</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">
+      <Url>https://tmfev.sharepoint.com/sites/tmf/mi-i/_layouts/15/DocIdRedir.aspx?ID=TMFEV-111023110-895</Url>
+      <Description>TMFEV-111023110-895</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -22418,27 +22465,6 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">TMFEV-111023110-895</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">
-      <Url>https://tmfev.sharepoint.com/sites/tmf/mi-i/_layouts/15/DocIdRedir.aspx?ID=TMFEV-111023110-895</Url>
-      <Description>TMFEV-111023110-895</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E73BDE1-9CCD-4DA3-98C1-B2700F42483C}">
   <ds:schemaRefs>
@@ -22460,9 +22486,11 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17381246-8561-41AA-90B8-1B77E21DFFC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B89C2DA-DD1E-4298-9623-BC864CA91962}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="15b42a90-06dd-4669-ae82-892e5974bb2f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22476,11 +22504,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B89C2DA-DD1E-4298-9623-BC864CA91962}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17381246-8561-41AA-90B8-1B77E21DFFC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="15b42a90-06dd-4669-ae82-892e5974bb2f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/resources/excel/FHIR_Testdatengenerator_Vorlage.xlsx
+++ b/src/main/resources/excel/FHIR_Testdatengenerator_Vorlage.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\D\Eigene Projekte\smith\TestDataGenerator_MIIGitHub\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326D11EC-A550-414F-B801-59055BB20332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF070F68-F59D-405D-9B0A-249FE131251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="23400" tabRatio="828" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="2" r:id="rId1"/>
-    <sheet name="Fall" sheetId="15" r:id="rId2"/>
+    <sheet name="Fall" sheetId="16" r:id="rId2"/>
     <sheet name="Laborbefund" sheetId="5" r:id="rId3"/>
     <sheet name="Diagnose" sheetId="1" r:id="rId4"/>
     <sheet name="Prozedur" sheetId="7" r:id="rId5"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1129">
   <si>
     <t>Patient-ID</t>
   </si>
@@ -2202,9 +2202,6 @@
     <t>BIOMAT Zusatz Einwilligung</t>
   </si>
   <si>
-    <t>Mustermann</t>
-  </si>
-  <si>
     <t>Osteroporose</t>
   </si>
   <si>
@@ -2277,36 +2274,6 @@
     <t>PZN_NIFEDIPIN</t>
   </si>
   <si>
-    <t>Bernd_01</t>
-  </si>
-  <si>
-    <t>Brigitte_01</t>
-  </si>
-  <si>
-    <t>Bernd_02</t>
-  </si>
-  <si>
-    <t>Brigitte_02</t>
-  </si>
-  <si>
-    <t>Bernd_03</t>
-  </si>
-  <si>
-    <t>Brigitte_03</t>
-  </si>
-  <si>
-    <t>Bernd_04</t>
-  </si>
-  <si>
-    <t>Brigitte_04</t>
-  </si>
-  <si>
-    <t>Bernd_05</t>
-  </si>
-  <si>
-    <t>Brigitte_05</t>
-  </si>
-  <si>
     <t>Sturz</t>
   </si>
   <si>
@@ -3219,9 +3186,6 @@
     <t>UCH1</t>
   </si>
   <si>
-    <t>UCH1-Z1</t>
-  </si>
-  <si>
     <t>si</t>
   </si>
   <si>
@@ -3354,9 +3318,6 @@
     <t>http://terminology.hl7.org/CodeSystem/location-physical-type</t>
   </si>
   <si>
-    <t>UCH1-Z1-B1</t>
-  </si>
-  <si>
     <t>Fall-Nr</t>
   </si>
   <si>
@@ -3405,29 +3366,126 @@
     <t>XXX</t>
   </si>
   <si>
-    <t>UCH1-Z2</t>
-  </si>
-  <si>
-    <t>UCH1-Z2-B1</t>
-  </si>
-  <si>
     <t>divers</t>
   </si>
   <si>
-    <t>Versorgungsstellentyp</t>
-  </si>
-  <si>
-    <t>Versorgungsstelle</t>
+    <t>Startzeit</t>
+  </si>
+  <si>
+    <t>Endzeit</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Alois</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Birgit</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Claus</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>Dora</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Ernst</t>
+  </si>
+  <si>
+    <t>Frauke</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Indus</t>
+  </si>
+  <si>
+    <t>Jahn</t>
+  </si>
+  <si>
+    <t>Fromm</t>
+  </si>
+  <si>
+    <t>Haus</t>
+  </si>
+  <si>
+    <t>Jana</t>
+  </si>
+  <si>
+    <t>Musterstraße 2, 53121 Bonn</t>
+  </si>
+  <si>
+    <t>Musterstraße 3, 53121 Bonn</t>
+  </si>
+  <si>
+    <t>Musterstraße 4, 53121 Bonn</t>
+  </si>
+  <si>
+    <t>Musterstraße 5, 53121 Bonn</t>
+  </si>
+  <si>
+    <t>Mustergasse 6, 53129 Bonn</t>
+  </si>
+  <si>
+    <t>Mustergasse 7, 53129 Bonn</t>
+  </si>
+  <si>
+    <t>Mustergasse 8, 53129 Bonn</t>
+  </si>
+  <si>
+    <t>Mustergasse 9, 53129 Bonn</t>
+  </si>
+  <si>
+    <t>Mustergasse 10, 53129 Bonn</t>
+  </si>
+  <si>
+    <t>Techniker</t>
+  </si>
+  <si>
+    <t>AOK plus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm;@"/>
     <numFmt numFmtId="166" formatCode="00000000"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -3635,7 +3693,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3702,6 +3760,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4051,8 +4111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4111,18 +4171,18 @@
         <v>703</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B2" t="s">
-        <v>729</v>
+        <v>1098</v>
       </c>
       <c r="C2" t="s">
-        <v>704</v>
+        <v>1099</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4152,21 +4212,21 @@
         <v>696</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B3" t="s">
-        <v>730</v>
+        <v>1100</v>
       </c>
       <c r="C3" t="s">
-        <v>704</v>
+        <v>1101</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>1118</v>
       </c>
       <c r="E3">
         <v>1951</v>
@@ -4175,7 +4235,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>1127</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -4183,21 +4243,21 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="45" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B4" t="s">
-        <v>731</v>
+        <v>1102</v>
       </c>
       <c r="C4" t="s">
-        <v>704</v>
+        <v>1103</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>1119</v>
       </c>
       <c r="E4">
         <v>1952</v>
@@ -4206,7 +4266,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>1128</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -4214,21 +4274,21 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="45" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B5" t="s">
-        <v>732</v>
+        <v>1104</v>
       </c>
       <c r="C5" t="s">
-        <v>704</v>
+        <v>1105</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>1120</v>
       </c>
       <c r="E5">
         <v>1953</v>
@@ -4247,16 +4307,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B6" t="s">
-        <v>733</v>
+        <v>1108</v>
       </c>
       <c r="C6" t="s">
-        <v>704</v>
+        <v>1106</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>1121</v>
       </c>
       <c r="E6">
         <v>1954</v>
@@ -4265,7 +4325,7 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>1127</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -4273,21 +4333,21 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="45" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B7" t="s">
-        <v>734</v>
+        <v>1109</v>
       </c>
       <c r="C7" t="s">
-        <v>704</v>
+        <v>1115</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>1122</v>
       </c>
       <c r="E7">
         <v>1955</v>
@@ -4296,7 +4356,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>1128</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -4304,21 +4364,21 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="45" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B8" t="s">
-        <v>735</v>
+        <v>1110</v>
       </c>
       <c r="C8" t="s">
-        <v>704</v>
+        <v>1107</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>1123</v>
       </c>
       <c r="E8">
         <v>1956</v>
@@ -4335,21 +4395,21 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="45" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B9" t="s">
-        <v>736</v>
+        <v>1111</v>
       </c>
       <c r="C9" t="s">
-        <v>704</v>
+        <v>1116</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>1124</v>
       </c>
       <c r="E9">
         <v>1957</v>
@@ -4358,7 +4418,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>1127</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -4366,21 +4426,21 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="45" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B10" t="s">
-        <v>737</v>
+        <v>1112</v>
       </c>
       <c r="C10" t="s">
-        <v>704</v>
+        <v>1113</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>1125</v>
       </c>
       <c r="E10">
         <v>1958</v>
@@ -4389,7 +4449,7 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>1128</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -4399,16 +4459,16 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B11" t="s">
-        <v>738</v>
+        <v>1117</v>
       </c>
       <c r="C11" t="s">
-        <v>704</v>
+        <v>1114</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>1126</v>
       </c>
       <c r="E11">
         <v>1959</v>
@@ -4425,7 +4485,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="45" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4435,7 +4495,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="45" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4445,7 +4505,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="45" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4455,7 +4515,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="45" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4465,7 +4525,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="45" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4475,7 +4535,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="45" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
     </row>
     <row r="17" spans="9:14">
@@ -4492,7 +4552,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="45" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
     </row>
     <row r="19" spans="9:14">
@@ -4502,7 +4562,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="45" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
     </row>
     <row r="20" spans="9:14">
@@ -4512,7 +4572,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="45" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
     </row>
     <row r="21" spans="9:14">
@@ -4522,7 +4582,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="45" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
     </row>
     <row r="22" spans="9:14">
@@ -4532,7 +4592,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="45" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
     </row>
     <row r="23" spans="9:14">
@@ -4542,7 +4602,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="45" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
     </row>
     <row r="24" spans="9:14">
@@ -4552,7 +4612,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="45" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
     </row>
     <row r="25" spans="9:14">
@@ -4569,7 +4629,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="26" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
     </row>
     <row r="27" spans="9:14">
@@ -4594,7 +4654,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="45" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
     </row>
     <row r="30" spans="9:14">
@@ -4604,7 +4664,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="44" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="31" spans="9:14">
@@ -4614,7 +4674,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="44" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
     </row>
     <row r="32" spans="9:14">
@@ -7948,7 +8008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961B0353-4A30-49CF-9E96-AB439FF3F972}">
   <dimension ref="A1:A150"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -7960,42 +8020,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="48" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -8003,87 +8063,87 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="48" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="48" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="48" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="48" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="48" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="48" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="48" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="48" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="48" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="48" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="48" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="48" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="48" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="48" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="48" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="48" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="48" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -8094,27 +8154,27 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="48" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="48" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="48" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="48" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="50" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -8122,27 +8182,27 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="48" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="48" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="48" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="48" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="48" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -8150,492 +8210,492 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="48" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="48" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="48" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="48" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="48" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="51" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="49" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="49" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="49" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="49" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="49" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="51" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="49" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="49" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="49" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="51" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="49" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="49" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="49" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="49" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="49" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="49" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="49" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="49" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="49" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="49" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="51" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="49" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="49" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="49" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="49" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="49" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="49" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="49" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="49" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="49" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="49" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="49" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="49" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="51" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="49" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="49" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="49" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="49" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="49" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="49" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="49" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="49" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="49" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="49" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="51" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="49" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="49" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="49" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="49" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="49" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="49" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="49" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="49" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="49" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="49" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="49" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="49" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="51" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="49" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="49" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="49" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="49" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="49" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="49" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="49" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="49" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="49" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="51" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="49" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="49" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="49" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="49" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="49" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="49" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="49" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="49" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="49" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="51" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -8645,11 +8705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209AF5CF-89CE-4DCC-882E-FBB9D349B2EB}">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61A7907-9758-4484-BF55-14E276212149}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8657,45 +8717,57 @@
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="52" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="53" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="53" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8703,519 +8775,465 @@
       <c r="C2" s="2">
         <v>43546</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
+        <v>43548</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3" s="2">
+        <v>43548</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="H3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43548</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43552</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>43550</v>
       </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="C3" s="2">
-        <v>43546</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43550</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E5" s="2">
+        <v>43554</v>
+      </c>
+      <c r="H5" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="45" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="C4" s="2">
-        <v>43546</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43550</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I4" s="45" t="s">
+      <c r="I5" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="C5" s="2">
-        <v>43546</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43548</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="L5" s="45" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="C6" s="2">
-        <v>43546</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43548</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1088</v>
+        <v>43552</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43556</v>
       </c>
       <c r="H6" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I6" s="45" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>744</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="C7" s="2">
-        <v>43548</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43550</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1105</v>
+        <v>43554</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43558</v>
       </c>
       <c r="H7" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I7" s="45"/>
-    </row>
-    <row r="8" spans="1:9">
+        <v>198</v>
+      </c>
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>744</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
       <c r="C8" s="2">
-        <v>43548</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43550</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1106</v>
+        <v>43556</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43560</v>
       </c>
       <c r="H8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="I9" s="45"/>
-    </row>
-    <row r="10" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>745</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43558</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43562</v>
+      </c>
+      <c r="H9" t="s">
+        <v>198</v>
+      </c>
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>43548</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43552</v>
-      </c>
-      <c r="E10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" t="s">
+        <v>43560</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43564</v>
+      </c>
+      <c r="H10" t="s">
         <v>203</v>
       </c>
-      <c r="G10" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="L10" s="45" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>43550</v>
-      </c>
-      <c r="D11" s="2">
-        <v>43554</v>
-      </c>
-      <c r="F11" t="s">
+        <v>43562</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43566</v>
+      </c>
+      <c r="H11" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>43552</v>
-      </c>
-      <c r="D12" s="2">
-        <v>43556</v>
-      </c>
-      <c r="F12" t="s">
+        <v>43564</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43568</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" t="s">
         <v>203</v>
       </c>
-      <c r="I12" s="45" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="L12" s="45" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>43554</v>
-      </c>
-      <c r="D13" s="2">
-        <v>43558</v>
-      </c>
-      <c r="F13" t="s">
+        <v>43566</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43570</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" t="s">
         <v>198</v>
       </c>
-      <c r="I13" s="45" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="L13" s="45" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>43556</v>
-      </c>
-      <c r="D14" s="2">
-        <v>43560</v>
-      </c>
-      <c r="F14" t="s">
+        <v>43568</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43572</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" t="s">
         <v>203</v>
       </c>
-      <c r="I14" s="45" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="L14" s="45" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>43558</v>
-      </c>
-      <c r="D15" s="2">
-        <v>43562</v>
-      </c>
-      <c r="F15" t="s">
+        <v>43570</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43574</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" t="s">
         <v>198</v>
       </c>
-      <c r="I15" s="45"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="L15" s="45"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>43560</v>
-      </c>
-      <c r="D16" s="2">
-        <v>43564</v>
-      </c>
-      <c r="F16" t="s">
+        <v>43572</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43576</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" t="s">
         <v>203</v>
       </c>
-      <c r="I16" s="45" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="L16" s="45" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>43562</v>
-      </c>
-      <c r="D17" s="2">
-        <v>43566</v>
-      </c>
-      <c r="F17" t="s">
+        <v>43574</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43578</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" t="s">
         <v>198</v>
       </c>
-      <c r="I17" s="45" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="L17" s="45" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" s="2">
-        <v>43564</v>
-      </c>
-      <c r="D18" s="2">
-        <v>43568</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" t="s">
+        <v>43576</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43580</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" t="s">
         <v>203</v>
       </c>
-      <c r="I18" s="45" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="L18" s="45" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>43566</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43570</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" t="s">
+        <v>43578</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43582</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" t="s">
         <v>198</v>
       </c>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="L19" s="45"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" s="2">
-        <v>43568</v>
-      </c>
-      <c r="D20" s="2">
-        <v>43572</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" t="s">
+        <v>43580</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43584</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" t="s">
         <v>203</v>
       </c>
-      <c r="I20" s="45" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="L20" s="45" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>43570</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43574</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" t="s">
+        <v>43582</v>
+      </c>
+      <c r="E21" s="2">
+        <v>43586</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" t="s">
         <v>198</v>
       </c>
-      <c r="I21" s="45" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="L21" s="45" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" s="2">
-        <v>43572</v>
-      </c>
-      <c r="D22" s="2">
-        <v>43576</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="s">
+        <v>43584</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43588</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" t="s">
         <v>203</v>
       </c>
-      <c r="I22" s="45" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>760</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>43574</v>
-      </c>
-      <c r="D23" s="2">
-        <v>43578</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>760</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>43576</v>
-      </c>
-      <c r="D24" s="2">
-        <v>43580</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>761</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>43578</v>
-      </c>
-      <c r="D25" s="2">
-        <v>43582</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>761</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2">
-        <v>43580</v>
-      </c>
-      <c r="D26" s="2">
-        <v>43584</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>762</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>43582</v>
-      </c>
-      <c r="D27" s="2">
-        <v>43586</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>762</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>43584</v>
-      </c>
-      <c r="D28" s="2">
-        <v>43588</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" t="s">
-        <v>203</v>
+      <c r="L22" s="45" t="s">
+        <v>1090</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="E1:F1" xr:uid="{577B203D-F64C-4638-8C62-0D01DEFD40FC}"/>
+    <dataValidation allowBlank="1" sqref="G1:H1" xr:uid="{B4E8EC36-779F-4EF0-A486-AC9241CBF2CF}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{5863C06F-E8EB-4034-A875-350D8CB2293C}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{B349F7B0-9EFB-443B-81F9-ADC1C3CF3D09}">
+          <x14:formula1>
+            <xm:f>Codes!$C$4:$C$42</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H3 H4:H22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{8AD9A5AF-4193-4E5E-9203-42C6A558A41F}">
           <x14:formula1>
             <xm:f>Codes!$B$4:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{08FE9DCB-1815-4D47-B27C-BC5972B1FB28}">
-          <x14:formula1>
-            <xm:f>Codes!$C$4:$C$42</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F28</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B3B8947-48E6-4140-A788-9660BE3C5851}">
-          <x14:formula1>
-            <xm:f>Codes!$R$4:$R$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H50</xm:sqref>
+          <xm:sqref>G2:G3 G4:G11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9228,7 +9246,7 @@
   <dimension ref="A1:I679"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -9248,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>25</v>
@@ -9266,157 +9284,157 @@
         <v>32</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="D2" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="E2">
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="G2" s="29">
         <v>43547</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="D3" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="E3">
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="G3" s="29">
         <v>43548</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="D4" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="E4">
         <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="G4" s="29">
         <v>43549</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="D5" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="E5">
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="G5" s="29">
         <v>43550</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="D6" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="E6">
         <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="G6" s="29">
         <v>43551</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="D7" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="E7">
         <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="G7" s="29">
         <v>43552</v>
@@ -9425,167 +9443,167 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="D8" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="E8">
         <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="G8" s="29">
         <v>43553</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="D9" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="E9">
         <v>730</v>
       </c>
       <c r="F9" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="G9" s="29">
         <v>43554</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="D10" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="E10">
         <v>550</v>
       </c>
       <c r="F10" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="G10" s="29">
         <v>43555</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="D11" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="E11">
         <v>540</v>
       </c>
       <c r="F11" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="G11" s="29">
         <v>43556</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="D12" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="E12">
         <v>554</v>
       </c>
       <c r="F12" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="G12" s="29">
         <v>43557</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="D13" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="E13">
         <v>0.34</v>
       </c>
       <c r="F13" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="G13" s="29">
         <v>43558</v>
@@ -9593,22 +9611,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="D14" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="E14">
         <v>0.02</v>
       </c>
       <c r="F14" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="G14" s="29">
         <v>43559</v>
@@ -9616,22 +9634,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="D15" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="E15">
         <v>0.54</v>
       </c>
       <c r="F15" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="G15" s="29">
         <v>43560</v>
@@ -9639,48 +9657,48 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="D16" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="E16">
         <v>1.71</v>
       </c>
       <c r="F16" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="G16" s="29">
         <v>43561</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="D17" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="E17">
         <v>1.18</v>
       </c>
       <c r="F17" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="G17" s="29">
         <v>43562</v>
@@ -9688,22 +9706,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="E18" s="10">
         <v>112</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="G18" s="29">
         <v>43563</v>
@@ -9711,22 +9729,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="E19" s="10">
         <v>130</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="G19" s="29">
         <v>43564</v>
@@ -9734,22 +9752,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="E20" s="10">
         <v>107</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="G20" s="29">
         <v>43565</v>
@@ -9757,22 +9775,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="E21" s="10">
         <v>98</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="G21" s="29">
         <v>43566</v>
@@ -9780,16 +9798,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="D22" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="E22" s="12">
         <v>1</v>
@@ -9800,16 +9818,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="D23" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="E23" s="12">
         <v>0.9</v>
@@ -9820,16 +9838,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="D24" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -9840,16 +9858,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="D25" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="E25" s="12">
         <v>1.1000000000000001</v>
@@ -9860,22 +9878,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="D26" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="E26">
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="G26" s="29">
         <v>43571</v>
@@ -9883,22 +9901,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="D27" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="E27">
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="G27" s="29">
         <v>43572</v>
@@ -9906,22 +9924,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="D28" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="E28">
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="G28" s="29">
         <v>43573</v>
@@ -9929,22 +9947,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="D29" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="E29">
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="G29" s="29">
         <v>43574</v>
@@ -9952,22 +9970,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="D30" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="E30">
         <v>772</v>
       </c>
       <c r="F30" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="G30" s="29">
         <v>43575</v>
@@ -9975,22 +9993,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="D31" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="E31">
         <v>140</v>
       </c>
       <c r="F31" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G31" s="29">
         <v>43576</v>
@@ -9998,22 +10016,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="D32" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="E32">
         <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G32" s="29">
         <v>43577</v>
@@ -10021,22 +10039,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="D33" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="E33">
         <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G33" s="29">
         <v>43578</v>
@@ -10044,22 +10062,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D34" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="E34">
         <v>3.5</v>
       </c>
       <c r="F34" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G34" s="29">
         <v>43579</v>
@@ -10067,22 +10085,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D35" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="E35">
         <v>4.0999999999999996</v>
       </c>
       <c r="F35" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G35" s="29">
         <v>43580</v>
@@ -10090,22 +10108,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D36" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="E36">
         <v>4.2</v>
       </c>
       <c r="F36" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G36" s="29">
         <v>43581</v>
@@ -10113,22 +10131,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D37" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="E37">
         <v>4.0999999999999996</v>
       </c>
       <c r="F37" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G37" s="29">
         <v>43582</v>
@@ -10136,22 +10154,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D38" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="E38">
         <v>4.3</v>
       </c>
       <c r="F38" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G38" s="29">
         <v>43583</v>
@@ -10159,22 +10177,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D39" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="E39">
         <v>4.8</v>
       </c>
       <c r="F39" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G39" s="29">
         <v>43584</v>
@@ -10182,22 +10200,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D40" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="E40">
         <v>4.9000000000000004</v>
       </c>
       <c r="F40" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G40" s="29">
         <v>43585</v>
@@ -10205,22 +10223,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D41" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="E41">
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G41" s="29">
         <v>43586</v>
@@ -13582,7 +13600,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G682" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" sqref="D382:D384 D397 D85:D88 D373:D374 D360:D362 D354 D336 D331 D221 D678:D1048576 D429:D431 D447 D450:D451 D455:D457 D460 D438:D439 D481:D484 D489:D492 D537:D538 D541:D542 D515:D534 D507 D511:D512 D496:D502 D549:D574 D583:D596 D607 D609 D614:D615 D617:D619 D623:D625 D635:D653 D657 D666:D667 D660:D661 D672:D675 D302:D306 D175:D189 D308:D323 D1:D17 D22:D48 D51:D77" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13616,7 +13634,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>33</v>
@@ -13631,7 +13649,7 @@
         <v>36</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -13639,16 +13657,16 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="E2" s="2">
         <v>43546</v>
@@ -13657,23 +13675,23 @@
         <v>695</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="H2" s="18"/>
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1">
       <c r="A3" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>705</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>706</v>
       </c>
       <c r="E3" s="2">
         <v>43546</v>
@@ -13682,23 +13700,23 @@
         <v>37</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="H3" s="18"/>
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="E4" s="2">
         <v>43548</v>
@@ -13707,22 +13725,22 @@
         <v>695</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1">
       <c r="A5" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="E5" s="2">
         <v>43550</v>
@@ -13731,22 +13749,22 @@
         <v>695</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1">
       <c r="A6" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E6" s="2">
         <v>43550</v>
@@ -13755,22 +13773,22 @@
         <v>37</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1">
       <c r="A7" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="E7" s="2">
         <v>43552</v>
@@ -13779,22 +13797,22 @@
         <v>695</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1">
       <c r="A8" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="E8" s="2">
         <v>43554</v>
@@ -13808,16 +13826,16 @@
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1">
       <c r="A9" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E9" s="2">
         <v>43554</v>
@@ -13826,23 +13844,23 @@
         <v>37</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1">
       <c r="A10" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="E10" s="2">
         <v>43556</v>
@@ -13851,7 +13869,7 @@
         <v>695</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -13859,16 +13877,16 @@
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1">
       <c r="A11" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="E11" s="2">
         <v>43558</v>
@@ -13877,7 +13895,7 @@
         <v>695</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -13885,16 +13903,16 @@
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1">
       <c r="A12" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E12" s="2">
         <v>43558</v>
@@ -13903,7 +13921,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -13911,16 +13929,16 @@
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1">
       <c r="A13" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="E13" s="2">
         <v>43560</v>
@@ -13935,16 +13953,16 @@
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1">
       <c r="A14" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="E14" s="2">
         <v>43562</v>
@@ -13953,23 +13971,23 @@
         <v>695</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1">
       <c r="A15" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E15" s="2">
         <v>43562</v>
@@ -13983,16 +14001,16 @@
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1">
       <c r="A16" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="E16" s="2">
         <v>43564</v>
@@ -14006,16 +14024,16 @@
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1">
       <c r="A17" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="E17" s="2">
         <v>43566</v>
@@ -14029,16 +14047,16 @@
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1">
       <c r="A18" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E18" s="2">
         <v>43566</v>
@@ -14051,16 +14069,16 @@
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1">
       <c r="A19" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="E19" s="2">
         <v>43568</v>
@@ -14074,16 +14092,16 @@
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1">
       <c r="A20" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="E20" s="2">
         <v>43570</v>
@@ -14098,16 +14116,16 @@
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1">
       <c r="A21" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E21" s="2">
         <v>43570</v>
@@ -14122,16 +14140,16 @@
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1">
       <c r="A22" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="E22" s="2">
         <v>43572</v>
@@ -14146,16 +14164,16 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1">
       <c r="A23" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="E23" s="2">
         <v>43574</v>
@@ -14170,16 +14188,16 @@
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1">
       <c r="A24" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E24" s="2">
         <v>43574</v>
@@ -14194,16 +14212,16 @@
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1">
       <c r="A25" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="E25" s="2">
         <v>43576</v>
@@ -14218,16 +14236,16 @@
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1">
       <c r="A26" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="E26" s="2">
         <v>43578</v>
@@ -14242,16 +14260,16 @@
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1">
       <c r="A27" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E27" s="2">
         <v>43578</v>
@@ -14266,16 +14284,16 @@
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1">
       <c r="A28" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="E28" s="2">
         <v>43580</v>
@@ -14290,16 +14308,16 @@
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1">
       <c r="A29" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="E29" s="2">
         <v>43582</v>
@@ -14314,16 +14332,16 @@
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1">
       <c r="A30" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E30" s="2">
         <v>43582</v>
@@ -14338,16 +14356,16 @@
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1">
       <c r="A31" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="E31" s="2">
         <v>43584</v>
@@ -14783,7 +14801,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -14804,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>41</v>
@@ -14816,147 +14834,147 @@
         <v>35</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="D2" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="E2" s="29">
         <v>43547</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="D3" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="E3" s="29">
         <v>43548</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="D4" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="E4" s="29">
         <v>43549</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="D5" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="E5" s="29">
         <v>43550</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="D6" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="E6" s="29">
         <v>43551</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="D7" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="E7" s="29">
         <v>43552</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="D8" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="E8" s="29">
         <v>43553</v>
@@ -14966,79 +14984,79 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="D9" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="E9" s="29">
         <v>43554</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="D10" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="E10" s="29">
         <v>43555</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="D11" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="E11" s="29">
         <v>43556</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D12" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="E12" s="29">
         <v>43557</v>
@@ -15048,16 +15066,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="D13" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="E13" s="29">
         <v>43558</v>
@@ -15066,37 +15084,37 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D14" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="E14" s="29">
         <v>43559</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" s="18" customFormat="1">
       <c r="A15" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="D15" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="E15" s="29">
         <v>43560</v>
@@ -15104,16 +15122,16 @@
     </row>
     <row r="16" spans="1:8" s="18" customFormat="1">
       <c r="A16" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="D16" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="E16" s="29">
         <v>43561</v>
@@ -15121,16 +15139,16 @@
     </row>
     <row r="17" spans="1:5" s="18" customFormat="1">
       <c r="A17" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="D17" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="E17" s="29">
         <v>43562</v>
@@ -15138,16 +15156,16 @@
     </row>
     <row r="18" spans="1:5" s="18" customFormat="1">
       <c r="A18" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="D18" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="E18" s="29">
         <v>43563</v>
@@ -15155,16 +15173,16 @@
     </row>
     <row r="19" spans="1:5" s="18" customFormat="1">
       <c r="A19" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="D19" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="E19" s="29">
         <v>43564</v>
@@ -15172,16 +15190,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="D20" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="E20" s="29">
         <v>43565</v>
@@ -15189,16 +15207,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="D21" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="E21" s="29">
         <v>43566</v>
@@ -15206,16 +15224,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="D22" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="E22" s="29">
         <v>43567</v>
@@ -15223,16 +15241,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D23" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="E23" s="29">
         <v>43568</v>
@@ -15240,16 +15258,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="D24" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="E24" s="29">
         <v>43569</v>
@@ -15257,16 +15275,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="D25" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="E25" s="29">
         <v>43570</v>
@@ -15274,16 +15292,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="D26" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="E26" s="29">
         <v>43571</v>
@@ -15291,16 +15309,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D27" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="E27" s="29">
         <v>43572</v>
@@ -15308,16 +15326,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="D28" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="E28" s="29">
         <v>43573</v>
@@ -15325,16 +15343,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="D29" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="E29" s="29">
         <v>43574</v>
@@ -15342,16 +15360,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="D30" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="E30" s="29">
         <v>43575</v>
@@ -15359,16 +15377,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="D31" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="E31" s="29">
         <v>43576</v>
@@ -15376,16 +15394,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="D32" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="E32" s="29">
         <v>43577</v>
@@ -15393,16 +15411,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="D33" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="E33" s="29">
         <v>43578</v>
@@ -15410,16 +15428,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="D34" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="E34" s="29">
         <v>43579</v>
@@ -15427,16 +15445,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="D35" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="E35" s="29">
         <v>43580</v>
@@ -15444,16 +15462,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="D36" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="E36" s="29">
         <v>43581</v>
@@ -15461,16 +15479,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="D37" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="E37" s="29">
         <v>43582</v>
@@ -15478,16 +15496,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D38" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="E38" s="29">
         <v>43583</v>
@@ -15495,16 +15513,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="D39" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="E39" s="29">
         <v>43584</v>
@@ -15512,16 +15530,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D40" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="E40" s="29">
         <v>43585</v>
@@ -15529,16 +15547,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="D41" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="E41" s="29">
         <v>43586</v>
@@ -15594,13 +15612,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>44</v>
@@ -15639,12 +15657,12 @@
         <v>51</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1">
       <c r="A2" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15660,10 +15678,10 @@
         <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H2" s="36"/>
       <c r="I2"/>
@@ -15687,12 +15705,12 @@
         <v>1</v>
       </c>
       <c r="Q2" s="45" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1">
       <c r="A3" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -15708,10 +15726,10 @@
         <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H3" s="36"/>
       <c r="I3"/>
@@ -15737,12 +15755,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="45" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -15758,10 +15776,10 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4"/>
@@ -15785,12 +15803,12 @@
         <v>1</v>
       </c>
       <c r="Q4" s="45" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1">
       <c r="A5" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -15806,10 +15824,10 @@
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5"/>
@@ -15835,12 +15853,12 @@
         <v>1</v>
       </c>
       <c r="Q5" s="45" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1">
       <c r="A6" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -15856,10 +15874,10 @@
         <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H6" s="36"/>
       <c r="I6"/>
@@ -15883,12 +15901,12 @@
         <v>1</v>
       </c>
       <c r="Q6" s="45" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1">
       <c r="A7" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -15904,10 +15922,10 @@
         <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7"/>
@@ -15933,12 +15951,12 @@
         <v>1</v>
       </c>
       <c r="Q7" s="45" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1">
       <c r="A8" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -15954,10 +15972,10 @@
         <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8"/>
@@ -15984,7 +16002,7 @@
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1">
       <c r="A9" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -16000,10 +16018,10 @@
         <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9"/>
@@ -16029,12 +16047,12 @@
         <v>1</v>
       </c>
       <c r="Q9" s="47" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1">
       <c r="A10" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -16050,7 +16068,7 @@
         <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="36">
@@ -16077,12 +16095,12 @@
         <v>1</v>
       </c>
       <c r="Q10" s="47" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1">
       <c r="A11" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -16098,7 +16116,7 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="36">
@@ -16106,7 +16124,7 @@
       </c>
       <c r="I11"/>
       <c r="J11" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K11" t="s">
         <v>57</v>
@@ -16127,12 +16145,12 @@
         <v>1</v>
       </c>
       <c r="Q11" s="47" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1">
       <c r="A12" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -16148,7 +16166,7 @@
         <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G12"/>
       <c r="H12" s="36">
@@ -16175,12 +16193,12 @@
         <v>1</v>
       </c>
       <c r="Q12" s="47" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1">
       <c r="A13" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -16196,7 +16214,7 @@
         <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G13"/>
       <c r="H13" s="36">
@@ -16204,7 +16222,7 @@
       </c>
       <c r="I13"/>
       <c r="J13" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K13" t="s">
         <v>57</v>
@@ -16225,12 +16243,12 @@
         <v>1</v>
       </c>
       <c r="Q13" s="47" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1">
       <c r="A14" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -16246,7 +16264,7 @@
         <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G14"/>
       <c r="H14" s="36">
@@ -16273,12 +16291,12 @@
         <v>1</v>
       </c>
       <c r="Q14" s="47" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1">
       <c r="A15" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -16294,7 +16312,7 @@
         <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="36">
@@ -16302,7 +16320,7 @@
       </c>
       <c r="I15"/>
       <c r="J15" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K15" t="s">
         <v>57</v>
@@ -16323,12 +16341,12 @@
         <v>1</v>
       </c>
       <c r="Q15" s="47" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1">
       <c r="A16" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -16344,7 +16362,7 @@
         <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G16"/>
       <c r="H16" s="36">
@@ -16371,12 +16389,12 @@
         <v>1</v>
       </c>
       <c r="Q16" s="47" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1">
       <c r="A17" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -16392,7 +16410,7 @@
         <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G17"/>
       <c r="H17" s="36">
@@ -16400,7 +16418,7 @@
       </c>
       <c r="I17"/>
       <c r="J17" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K17" t="s">
         <v>57</v>
@@ -16421,12 +16439,12 @@
         <v>1</v>
       </c>
       <c r="Q17" s="47" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1">
       <c r="A18" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -16442,10 +16460,10 @@
         <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18"/>
@@ -16469,12 +16487,12 @@
         <v>1</v>
       </c>
       <c r="Q18" s="47" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1">
       <c r="A19" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -16490,10 +16508,10 @@
         <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G19" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19"/>
@@ -16519,12 +16537,12 @@
         <v>1</v>
       </c>
       <c r="Q19" s="47" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1">
       <c r="A20" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -16540,10 +16558,10 @@
         <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G20" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H20" s="36"/>
       <c r="I20"/>
@@ -16567,12 +16585,12 @@
         <v>1</v>
       </c>
       <c r="Q20" s="47" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1">
       <c r="A21" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -16588,10 +16606,10 @@
         <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H21" s="36"/>
       <c r="I21"/>
@@ -16617,12 +16635,12 @@
         <v>1</v>
       </c>
       <c r="Q21" s="47" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1">
       <c r="A22" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -16638,10 +16656,10 @@
         <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H22" s="36"/>
       <c r="I22"/>
@@ -16665,12 +16683,12 @@
         <v>1</v>
       </c>
       <c r="Q22" s="47" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1">
       <c r="A23" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -16686,10 +16704,10 @@
         <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H23" s="36"/>
       <c r="I23"/>
@@ -16718,7 +16736,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -16734,10 +16752,10 @@
         <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G24" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K24" t="s">
         <v>57</v>
@@ -16758,12 +16776,12 @@
         <v>1</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -16779,10 +16797,10 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G25" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>56</v>
@@ -16808,7 +16826,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -16824,7 +16842,7 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H26" s="36">
         <v>4748362</v>
@@ -16850,7 +16868,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -16866,13 +16884,13 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H27" s="36">
         <v>4748362</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K27" t="s">
         <v>57</v>
@@ -16895,7 +16913,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -16911,7 +16929,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H28" s="36">
         <v>4748379</v>
@@ -16937,7 +16955,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -16953,13 +16971,13 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H29" s="36">
         <v>4748385</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K29" t="s">
         <v>57</v>
@@ -16982,7 +17000,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -16998,7 +17016,7 @@
         <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H30" s="36">
         <v>4748362</v>
@@ -17024,7 +17042,7 @@
     </row>
     <row r="31" spans="1:17" s="14" customFormat="1">
       <c r="A31" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -17040,7 +17058,7 @@
         <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G31"/>
       <c r="H31" s="36">
@@ -17048,7 +17066,7 @@
       </c>
       <c r="I31"/>
       <c r="J31" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K31" t="s">
         <v>57</v>
@@ -17072,7 +17090,7 @@
     </row>
     <row r="32" spans="1:17" s="14" customFormat="1">
       <c r="A32" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -17088,7 +17106,7 @@
         <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G32"/>
       <c r="H32" s="36">
@@ -17118,7 +17136,7 @@
     </row>
     <row r="33" spans="1:17" s="14" customFormat="1">
       <c r="A33" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -17134,7 +17152,7 @@
         <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G33"/>
       <c r="H33" s="36">
@@ -17142,7 +17160,7 @@
       </c>
       <c r="I33"/>
       <c r="J33" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K33" t="s">
         <v>57</v>
@@ -17165,7 +17183,7 @@
     </row>
     <row r="34" spans="1:17" s="14" customFormat="1">
       <c r="A34" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -17181,10 +17199,10 @@
         <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34"/>
@@ -17211,7 +17229,7 @@
     </row>
     <row r="35" spans="1:17" s="14" customFormat="1">
       <c r="A35" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -17227,10 +17245,10 @@
         <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G35" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H35" s="36"/>
       <c r="I35"/>
@@ -17259,7 +17277,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -17275,10 +17293,10 @@
         <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G36" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K36" t="s">
         <v>57</v>
@@ -17301,7 +17319,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -17317,10 +17335,10 @@
         <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J37" s="21" t="s">
         <v>56</v>
@@ -17346,7 +17364,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -17362,10 +17380,10 @@
         <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G38" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K38" t="s">
         <v>57</v>
@@ -17388,7 +17406,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -17404,10 +17422,10 @@
         <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J39" s="21" t="s">
         <v>56</v>
@@ -17433,7 +17451,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -17449,10 +17467,10 @@
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G40" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K40" t="s">
         <v>57</v>
@@ -17475,7 +17493,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -17491,10 +17509,10 @@
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G41" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J41" s="21" t="s">
         <v>56</v>
@@ -17929,7 +17947,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>33</v>
@@ -17947,186 +17965,186 @@
         <v>43</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="D2" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="E2">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="G2" s="29">
         <v>43546</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="D3" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="E3">
         <v>87.6</v>
       </c>
       <c r="F3" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="G3" s="29">
         <f>G2+1</f>
         <v>43547</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="D4" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="E4">
         <v>87.4</v>
       </c>
       <c r="F4" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" ref="G4:G5" si="0">G3+1</f>
         <v>43548</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="D5" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="E5">
         <v>86.9</v>
       </c>
       <c r="F5" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="0"/>
         <v>43549</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="D6" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="E6">
         <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="G6" s="29">
         <v>43546</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="D7" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="E7">
         <v>29.1</v>
       </c>
       <c r="F7" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="G7" s="29">
         <v>43546</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="D8" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="E8">
         <v>36.6</v>
       </c>
       <c r="F8" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="G8" s="29">
         <v>43546</v>
@@ -18135,156 +18153,156 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="D9" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="E9">
         <v>36.799999999999997</v>
       </c>
       <c r="F9" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="G9" s="29">
         <f>G8+1</f>
         <v>43547</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="D10" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="E10">
         <v>35.799999999999997</v>
       </c>
       <c r="F10" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" ref="G10:G12" si="1">G9+1</f>
         <v>43548</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="D11" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="E11">
         <v>35.6</v>
       </c>
       <c r="F11" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
         <v>43549</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="D12" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="E12">
         <v>35.799999999999997</v>
       </c>
       <c r="F12" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
         <v>43550</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="D13" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E13">
         <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="G13" s="29">
         <v>43546</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="D14" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E14">
         <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="G14" s="29">
         <f>G13+1</f>
@@ -18294,22 +18312,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="D15" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E15">
         <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" ref="G15:G17" si="2">G14+1</f>
@@ -18319,22 +18337,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="D16" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E16">
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="2"/>
@@ -18344,22 +18362,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="D17" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E17">
         <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="2"/>
@@ -18368,48 +18386,48 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="D18" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="E18">
         <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G18" s="29">
         <v>43546</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="D19" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="E19">
         <v>140</v>
       </c>
       <c r="F19" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G19" s="29">
         <f>G18+1</f>
@@ -18418,22 +18436,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="D20" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="E20">
         <v>140</v>
       </c>
       <c r="F20" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" ref="G20:G22" si="3">G19+1</f>
@@ -18442,22 +18460,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="D21" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="E21">
         <v>130</v>
       </c>
       <c r="F21" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="3"/>
@@ -18466,22 +18484,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="D22" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="E22">
         <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="3"/>
@@ -18490,22 +18508,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="D23" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="E23">
         <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G23" s="29">
         <v>43546</v>
@@ -18513,22 +18531,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="D24" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="E24">
         <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G24" s="29">
         <f>G23+1</f>
@@ -18537,22 +18555,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="D25" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="E25">
         <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" ref="G25:G27" si="4">G24+1</f>
@@ -18561,22 +18579,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="D26" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="E26">
         <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="4"/>
@@ -18585,22 +18603,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="D27" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="E27">
         <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="4"/>
@@ -18687,7 +18705,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18702,161 +18720,161 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="C2" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="D2" t="s">
         <v>696</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="C3" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="D3" t="s">
         <v>697</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="C4" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="E4" s="45"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="D5" t="s">
         <v>696</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="D6" t="s">
         <v>697</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B8">
         <v>1.2</v>
       </c>
       <c r="C8" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="D8" t="s">
         <v>696</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B9">
         <v>1.2</v>
       </c>
       <c r="C9" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="D9" t="s">
         <v>697</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B10">
         <v>1.2</v>
       </c>
       <c r="C10" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="D11" t="s">
         <v>696</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="D12" t="s">
         <v>697</v>
@@ -18865,7 +18883,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -18874,12 +18892,12 @@
         <v>696</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -18888,12 +18906,12 @@
         <v>697</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B15">
         <v>1.2</v>
@@ -18902,12 +18920,12 @@
         <v>696</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B16">
         <v>1.2</v>
@@ -18919,21 +18937,21 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B17">
         <v>1.2</v>
       </c>
       <c r="C17" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="E18" s="26" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
@@ -18975,28 +18993,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21">
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="52" t="s">
-        <v>975</v>
-      </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="E2" s="54" t="s">
+        <v>964</v>
+      </c>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="1" t="s">
         <v>101</v>
       </c>
@@ -19019,16 +19037,16 @@
         <v>103</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -19069,16 +19087,16 @@
         <v>696</v>
       </c>
       <c r="M4" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="N4" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="R4" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="S4" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -19119,21 +19137,21 @@
         <v>697</v>
       </c>
       <c r="M5" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="N5" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="R5" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="S5" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>1107</v>
+        <v>1092</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -19166,22 +19184,22 @@
         <v>123</v>
       </c>
       <c r="M6" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="N6" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="R6" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="S6" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="T6" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="U6" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -19216,16 +19234,16 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="S7" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="T7" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="U7" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -19260,16 +19278,16 @@
         <v>140</v>
       </c>
       <c r="N8" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="S8" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="T8" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="U8" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -19301,16 +19319,16 @@
         <v>149</v>
       </c>
       <c r="N9" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="S9" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="T9" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="U9" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -19339,16 +19357,16 @@
         <v>155</v>
       </c>
       <c r="N10" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="S10" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="T10" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="U10" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -19377,16 +19395,16 @@
         <v>162</v>
       </c>
       <c r="N11" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="S11" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="T11" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="U11" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -19409,16 +19427,16 @@
         <v>167</v>
       </c>
       <c r="N12" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="S12" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="T12" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="U12" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -19441,16 +19459,16 @@
         <v>172</v>
       </c>
       <c r="N13" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="S13" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="T13" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="U13" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -19470,16 +19488,16 @@
         <v>177</v>
       </c>
       <c r="N14" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="S14" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="T14" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="U14" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -19499,16 +19517,16 @@
         <v>182</v>
       </c>
       <c r="N15" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="S15" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="T15" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="U15" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -19528,13 +19546,13 @@
         <v>187</v>
       </c>
       <c r="S16" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="T16" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="U16" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="17" spans="3:21">
@@ -19554,13 +19572,13 @@
         <v>192</v>
       </c>
       <c r="S17" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="T17" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="U17" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="18" spans="3:21">
@@ -19580,13 +19598,13 @@
         <v>197</v>
       </c>
       <c r="S18" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="T18" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="U18" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="19" spans="3:21">
@@ -19606,13 +19624,13 @@
         <v>202</v>
       </c>
       <c r="S19" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="T19" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="U19" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="20" spans="3:21">
@@ -21694,6 +21712,77 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">TMFEV-111023110-895</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">
+      <Url>https://tmfev.sharepoint.com/sites/tmf/mi-i/_layouts/15/DocIdRedir.aspx?ID=TMFEV-111023110-895</Url>
+      <Description>TMFEV-111023110-895</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DBF8EC412D8CCF4EB717AD3D944049CF" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="df242df24ce9c459e95a399f1d5f10f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="15b42a90-06dd-4669-ae82-892e5974bb2f" xmlns:ns3="2d89f73c-94c0-4155-aa8d-969ee56d6579" xmlns:ns4="eaa21d2e-573b-4747-938a-ffc27391051f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9eb0b91dce5f86d4b3092630ff7b2144" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="15b42a90-06dd-4669-ae82-892e5974bb2f"/>
@@ -21934,78 +22023,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">TMFEV-111023110-895</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="15b42a90-06dd-4669-ae82-892e5974bb2f">
-      <Url>https://tmfev.sharepoint.com/sites/tmf/mi-i/_layouts/15/DocIdRedir.aspx?ID=TMFEV-111023110-895</Url>
-      <Description>TMFEV-111023110-895</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B89C2DA-DD1E-4298-9623-BC864CA91962}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="15b42a90-06dd-4669-ae82-892e5974bb2f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F3EECB9-8F76-4A0D-B25B-69509DED7146}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17381246-8561-41AA-90B8-1B77E21DFFC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E73BDE1-9CCD-4DA3-98C1-B2700F42483C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22023,30 +22067,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B89C2DA-DD1E-4298-9623-BC864CA91962}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="15b42a90-06dd-4669-ae82-892e5974bb2f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F3EECB9-8F76-4A0D-B25B-69509DED7146}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17381246-8561-41AA-90B8-1B77E21DFFC0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>